--- a/static/data/example.xlsx
+++ b/static/data/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="409">
   <si>
     <t>Codes</t>
   </si>
@@ -25,39 +25,48 @@
     <t>long</t>
   </si>
   <si>
+    <t>commute_time</t>
+  </si>
+  <si>
+    <t>commute_time_min</t>
+  </si>
+  <si>
     <t>M3J 3M6</t>
   </si>
   <si>
     <t>M7A 2C5</t>
   </si>
   <si>
+    <t>M3J 2S5</t>
+  </si>
+  <si>
     <t>M3J 2C1</t>
   </si>
   <si>
     <t>M3J 3K8</t>
   </si>
   <si>
+    <t>M3J 3L9</t>
+  </si>
+  <si>
     <t>M3J 3K9</t>
   </si>
   <si>
     <t>M3J 3L1</t>
   </si>
   <si>
-    <t>M3J 3L9</t>
-  </si>
-  <si>
     <t>M3J 1L2</t>
   </si>
   <si>
+    <t>M3J 3L2</t>
+  </si>
+  <si>
+    <t>M3J 3L3</t>
+  </si>
+  <si>
     <t>M3J 1L1</t>
   </si>
   <si>
-    <t>M3J 3L2</t>
-  </si>
-  <si>
-    <t>M3J 3L3</t>
-  </si>
-  <si>
     <t>M3J 1L3</t>
   </si>
   <si>
@@ -67,127 +76,142 @@
     <t>M3J 0B9</t>
   </si>
   <si>
+    <t>M3J 1L4</t>
+  </si>
+  <si>
     <t>M3J 0C4</t>
   </si>
   <si>
-    <t>M3J 1L4</t>
+    <t>L5M 0Y4</t>
+  </si>
+  <si>
+    <t>M3J 0A6</t>
+  </si>
+  <si>
+    <t>M3J 0J5</t>
+  </si>
+  <si>
+    <t>M3J 0J8</t>
+  </si>
+  <si>
+    <t>L4K 4T4</t>
   </si>
   <si>
     <t>M3J 0C8</t>
   </si>
   <si>
-    <t>M3J 0A6</t>
+    <t>M3J 0B6</t>
+  </si>
+  <si>
+    <t>M3J 0A2</t>
+  </si>
+  <si>
+    <t>M3J 2Z8</t>
+  </si>
+  <si>
+    <t>M3J 0B8</t>
   </si>
   <si>
     <t>M3J 0C3</t>
   </si>
   <si>
-    <t>M3J 0B6</t>
-  </si>
-  <si>
-    <t>M3J 0B8</t>
+    <t>M3N 3A6</t>
+  </si>
+  <si>
+    <t>M3J 0A7</t>
+  </si>
+  <si>
+    <t>M3J 0A9</t>
+  </si>
+  <si>
+    <t>M3J 1P3</t>
+  </si>
+  <si>
+    <t>M3J 0A5</t>
   </si>
   <si>
     <t>M3J 0C5</t>
   </si>
   <si>
-    <t>M3J 0A2</t>
-  </si>
-  <si>
-    <t>M3J 0A7</t>
-  </si>
-  <si>
-    <t>M3J 1P3</t>
-  </si>
-  <si>
     <t>M3J 0E3</t>
   </si>
   <si>
-    <t>M3J 0A9</t>
-  </si>
-  <si>
-    <t>M3J 0A5</t>
+    <t>M3J 0B4</t>
+  </si>
+  <si>
+    <t>M3J 0B2</t>
+  </si>
+  <si>
+    <t>M3J 0C2</t>
   </si>
   <si>
     <t>M3J 0C9</t>
   </si>
   <si>
-    <t>M3J 0C2</t>
-  </si>
-  <si>
-    <t>M3J 0B4</t>
-  </si>
-  <si>
-    <t>M3J 0B2</t>
-  </si>
-  <si>
     <t>M3J 0B7</t>
   </si>
   <si>
+    <t>M3J 0A3</t>
+  </si>
+  <si>
+    <t>M3J 0B3</t>
+  </si>
+  <si>
+    <t>M3J 0K6</t>
+  </si>
+  <si>
+    <t>M3J 0A8</t>
+  </si>
+  <si>
+    <t>M3J 0L1</t>
+  </si>
+  <si>
+    <t>M3J 0C6</t>
+  </si>
+  <si>
+    <t>M3J 0C1</t>
+  </si>
+  <si>
     <t>M3J 0E2</t>
   </si>
   <si>
-    <t>M3J 0B3</t>
-  </si>
-  <si>
-    <t>M3J 0C6</t>
-  </si>
-  <si>
-    <t>M3J 0C1</t>
+    <t>M3J 0A1</t>
   </si>
   <si>
     <t>M3J 0C7</t>
   </si>
   <si>
-    <t>M3J 0A3</t>
-  </si>
-  <si>
-    <t>M3J 0A8</t>
+    <t>M3J 3T2</t>
   </si>
   <si>
     <t>M3J 0E1</t>
   </si>
   <si>
-    <t>M3J 0K6</t>
-  </si>
-  <si>
-    <t>M3J 3T2</t>
-  </si>
-  <si>
-    <t>M3J 0L1</t>
-  </si>
-  <si>
-    <t>M3J 0J5</t>
-  </si>
-  <si>
-    <t>M3J 0J8</t>
-  </si>
-  <si>
-    <t>M3J 0A1</t>
-  </si>
-  <si>
-    <t>L5M 0Y4</t>
-  </si>
-  <si>
-    <t>L4K 4T4</t>
+    <t>M3J 0A4</t>
+  </si>
+  <si>
+    <t>M3J 2N9</t>
+  </si>
+  <si>
+    <t>M3J 0K5</t>
+  </si>
+  <si>
+    <t>M3J 0K7</t>
+  </si>
+  <si>
+    <t>M3J 2P3</t>
+  </si>
+  <si>
+    <t>M3J 3T3</t>
+  </si>
+  <si>
+    <t>M3J 3T6</t>
   </si>
   <si>
     <t>M3J 3S1</t>
   </si>
   <si>
-    <t>M3J 0A4</t>
-  </si>
-  <si>
-    <t>M3N 3A6</t>
-  </si>
-  <si>
-    <t>M3J 3T6</t>
-  </si>
-  <si>
-    <t>M3J 3T3</t>
-  </si>
-  <si>
-    <t>M3J 2N9</t>
+    <t>M3J 3T4</t>
   </si>
   <si>
     <t>M3J 3T1</t>
@@ -196,31 +220,1027 @@
     <t>M6J 0E8</t>
   </si>
   <si>
+    <t>M3J 3R4</t>
+  </si>
+  <si>
     <t>M3J 0E5</t>
   </si>
   <si>
-    <t>M3J 0K5</t>
-  </si>
-  <si>
-    <t>M3J 0K7</t>
-  </si>
-  <si>
-    <t>M3J 3R4</t>
-  </si>
-  <si>
-    <t>M3J 2Z8</t>
-  </si>
-  <si>
     <t>M3J 3P7</t>
   </si>
   <si>
-    <t>M3J 3T4</t>
+    <t>M3J 3P9</t>
   </si>
   <si>
     <t>M3J 0E4</t>
   </si>
   <si>
-    <t>M3J 3P9</t>
+    <t>M3J 3T5</t>
+  </si>
+  <si>
+    <t>M3J 3R3</t>
+  </si>
+  <si>
+    <t>M3J 3R8</t>
+  </si>
+  <si>
+    <t>M3J 3S7</t>
+  </si>
+  <si>
+    <t>M3J 2N8</t>
+  </si>
+  <si>
+    <t>M3J 3R7</t>
+  </si>
+  <si>
+    <t>M3J 3S6</t>
+  </si>
+  <si>
+    <t>M3J 3P3</t>
+  </si>
+  <si>
+    <t>M3J 3R6</t>
+  </si>
+  <si>
+    <t>M3J 3S8</t>
+  </si>
+  <si>
+    <t>M3J 3S9</t>
+  </si>
+  <si>
+    <t>M3N 1S4</t>
+  </si>
+  <si>
+    <t>M3J 0E6</t>
+  </si>
+  <si>
+    <t>M3J 3S4</t>
+  </si>
+  <si>
+    <t>M3J 0E7</t>
+  </si>
+  <si>
+    <t>M3J 3R5</t>
+  </si>
+  <si>
+    <t>M3J 3P8</t>
+  </si>
+  <si>
+    <t>M3J 3S2</t>
+  </si>
+  <si>
+    <t>M3J 3A4</t>
+  </si>
+  <si>
+    <t>M3J 3P4</t>
+  </si>
+  <si>
+    <t>M3J 3S3</t>
+  </si>
+  <si>
+    <t>M3J 1N9</t>
+  </si>
+  <si>
+    <t>M3J 3R1</t>
+  </si>
+  <si>
+    <t>M3J 3M4</t>
+  </si>
+  <si>
+    <t>M3J 2X6</t>
+  </si>
+  <si>
+    <t>M3J 3P5</t>
+  </si>
+  <si>
+    <t>M3J 0E9</t>
+  </si>
+  <si>
+    <t>M3J 3P2</t>
+  </si>
+  <si>
+    <t>M3J 3T7</t>
+  </si>
+  <si>
+    <t>M3J 3R2</t>
+  </si>
+  <si>
+    <t>M3J 3S5</t>
+  </si>
+  <si>
+    <t>M3J 3R9</t>
+  </si>
+  <si>
+    <t>M3J 0E8</t>
+  </si>
+  <si>
+    <t>M3J 3N8</t>
+  </si>
+  <si>
+    <t>M3J 3P6</t>
+  </si>
+  <si>
+    <t>M3J 3N9</t>
+  </si>
+  <si>
+    <t>M3J 3N7</t>
+  </si>
+  <si>
+    <t>M3J 3K1</t>
+  </si>
+  <si>
+    <t>M3N 2P4</t>
+  </si>
+  <si>
+    <t>M3J 0G2</t>
+  </si>
+  <si>
+    <t>M3J 3N6</t>
+  </si>
+  <si>
+    <t>M3J 3P1</t>
+  </si>
+  <si>
+    <t>M3J 0G1</t>
+  </si>
+  <si>
+    <t>M3N 2P3</t>
+  </si>
+  <si>
+    <t>M3J 3B2</t>
+  </si>
+  <si>
+    <t>M3J 0G4</t>
+  </si>
+  <si>
+    <t>M3J 3T8</t>
+  </si>
+  <si>
+    <t>M3J 0G3</t>
+  </si>
+  <si>
+    <t>M3N 2S3</t>
+  </si>
+  <si>
+    <t>M3J 2Z3</t>
+  </si>
+  <si>
+    <t>M3N 2W1</t>
+  </si>
+  <si>
+    <t>M3J 2P4</t>
+  </si>
+  <si>
+    <t>M3J 1V5</t>
+  </si>
+  <si>
+    <t>M3N 2S2</t>
+  </si>
+  <si>
+    <t>M3N 2P2</t>
+  </si>
+  <si>
+    <t>M3J 2N7</t>
+  </si>
+  <si>
+    <t>M3N 2R1</t>
+  </si>
+  <si>
+    <t>M3N 2Y6</t>
+  </si>
+  <si>
+    <t>M3J 1P1</t>
+  </si>
+  <si>
+    <t>M3J 2N5</t>
+  </si>
+  <si>
+    <t>M3N 2P9</t>
+  </si>
+  <si>
+    <t>M3J 1K9</t>
+  </si>
+  <si>
+    <t>L4K 3S2</t>
+  </si>
+  <si>
+    <t>M3J 1V6</t>
+  </si>
+  <si>
+    <t>M3N 2R8</t>
+  </si>
+  <si>
+    <t>M3J 2W3</t>
+  </si>
+  <si>
+    <t>M3N 2S1</t>
+  </si>
+  <si>
+    <t>M3J 1K8</t>
+  </si>
+  <si>
+    <t>M3N 2Y7</t>
+  </si>
+  <si>
+    <t>M3J 3A5</t>
+  </si>
+  <si>
+    <t>M3J 2V3</t>
+  </si>
+  <si>
+    <t>M3N 2P5</t>
+  </si>
+  <si>
+    <t>M3J 3A1</t>
+  </si>
+  <si>
+    <t>M3J 2V1</t>
+  </si>
+  <si>
+    <t>M3J 2S9</t>
+  </si>
+  <si>
+    <t>M3N 2P1</t>
+  </si>
+  <si>
+    <t>M3N 2R4</t>
+  </si>
+  <si>
+    <t>M3J 2X8</t>
+  </si>
+  <si>
+    <t>M3J 1K7</t>
+  </si>
+  <si>
+    <t>M3N 2R9</t>
+  </si>
+  <si>
+    <t>M3J 2S3</t>
+  </si>
+  <si>
+    <t>M3N 2P6</t>
+  </si>
+  <si>
+    <t>M3J 2N6</t>
+  </si>
+  <si>
+    <t>M3N 2S6</t>
+  </si>
+  <si>
+    <t>M3N 1T4</t>
+  </si>
+  <si>
+    <t>M3J 2S8</t>
+  </si>
+  <si>
+    <t>M3J 2T6</t>
+  </si>
+  <si>
+    <t>M3N 2P7</t>
+  </si>
+  <si>
+    <t>L4K 5X6</t>
+  </si>
+  <si>
+    <t>M3J 2V2</t>
+  </si>
+  <si>
+    <t>M3J 3K4</t>
+  </si>
+  <si>
+    <t>M3N 1P4</t>
+  </si>
+  <si>
+    <t>M3N 1P5</t>
+  </si>
+  <si>
+    <t>M3N 2N9</t>
+  </si>
+  <si>
+    <t>L4K 0B6</t>
+  </si>
+  <si>
+    <t>M3J 2W1</t>
+  </si>
+  <si>
+    <t>M3N 2K7</t>
+  </si>
+  <si>
+    <t>M3N 3A7</t>
+  </si>
+  <si>
+    <t>M3N 2P8</t>
+  </si>
+  <si>
+    <t>M3J 1K6</t>
+  </si>
+  <si>
+    <t>M3N 1S5</t>
+  </si>
+  <si>
+    <t>M3J 2T1</t>
+  </si>
+  <si>
+    <t>M3J 3L7</t>
+  </si>
+  <si>
+    <t>M3J 3G3</t>
+  </si>
+  <si>
+    <t>M3J 2Y9</t>
+  </si>
+  <si>
+    <t>M3N 2N6</t>
+  </si>
+  <si>
+    <t>M3J 2V7</t>
+  </si>
+  <si>
+    <t>M3N 2K8</t>
+  </si>
+  <si>
+    <t>M3N 2T6</t>
+  </si>
+  <si>
+    <t>M3N 2K9</t>
+  </si>
+  <si>
+    <t>M3N 2L1</t>
+  </si>
+  <si>
+    <t>M3N 2N8</t>
+  </si>
+  <si>
+    <t>M3J 3K5</t>
+  </si>
+  <si>
+    <t>M3J 2P9</t>
+  </si>
+  <si>
+    <t>M3J 2X7</t>
+  </si>
+  <si>
+    <t>M3J 2P5</t>
+  </si>
+  <si>
+    <t>L4K 2Y7</t>
+  </si>
+  <si>
+    <t>M3J 1P2</t>
+  </si>
+  <si>
+    <t>M3J 2G7</t>
+  </si>
+  <si>
+    <t>M3J 3K2</t>
+  </si>
+  <si>
+    <t>M3N 2R6</t>
+  </si>
+  <si>
+    <t>M3J 1K5</t>
+  </si>
+  <si>
+    <t>M3N 2L2</t>
+  </si>
+  <si>
+    <t>M3J 2G8</t>
+  </si>
+  <si>
+    <t>M3N 2L3</t>
+  </si>
+  <si>
+    <t>M3N 2R7</t>
+  </si>
+  <si>
+    <t>M3N 2W4</t>
+  </si>
+  <si>
+    <t>M3N 1P2</t>
+  </si>
+  <si>
+    <t>M3J 3G9</t>
+  </si>
+  <si>
+    <t>M3J 1V3</t>
+  </si>
+  <si>
+    <t>M3N 2L4</t>
+  </si>
+  <si>
+    <t>L4K 3C9</t>
+  </si>
+  <si>
+    <t>M3J 1K4</t>
+  </si>
+  <si>
+    <t>M3N 2H2</t>
+  </si>
+  <si>
+    <t>M3N 2H3</t>
+  </si>
+  <si>
+    <t>M3N 2K5</t>
+  </si>
+  <si>
+    <t>M3J 1V4</t>
+  </si>
+  <si>
+    <t>M3N 1P3</t>
+  </si>
+  <si>
+    <t>M3N 2R5</t>
+  </si>
+  <si>
+    <t>M3J 2V4</t>
+  </si>
+  <si>
+    <t>L4K 2Z5</t>
+  </si>
+  <si>
+    <t>M3J 1K1</t>
+  </si>
+  <si>
+    <t>L4K 3E1</t>
+  </si>
+  <si>
+    <t>L4K 2V1</t>
+  </si>
+  <si>
+    <t>M3J 1K2</t>
+  </si>
+  <si>
+    <t>M3N 2W5</t>
+  </si>
+  <si>
+    <t>M3J 2S4</t>
+  </si>
+  <si>
+    <t>M3J 2R1</t>
+  </si>
+  <si>
+    <t>M3J 1R9</t>
+  </si>
+  <si>
+    <t>M3J 1K3</t>
+  </si>
+  <si>
+    <t>M3J 1T9</t>
+  </si>
+  <si>
+    <t>M3J 3K6</t>
+  </si>
+  <si>
+    <t>M3N 1S7</t>
+  </si>
+  <si>
+    <t>M3N 2W3</t>
+  </si>
+  <si>
+    <t>M3N 3A5</t>
+  </si>
+  <si>
+    <t>M3J 1J8</t>
+  </si>
+  <si>
+    <t>M3N 2K6</t>
+  </si>
+  <si>
+    <t>M3J 2G5</t>
+  </si>
+  <si>
+    <t>M3J 2G6</t>
+  </si>
+  <si>
+    <t>M3J 2P1</t>
+  </si>
+  <si>
+    <t>M3N 2Y5</t>
+  </si>
+  <si>
+    <t>M3J 3J7</t>
+  </si>
+  <si>
+    <t>M3J 0K8</t>
+  </si>
+  <si>
+    <t>M3J 1R8</t>
+  </si>
+  <si>
+    <t>M3N 1N5</t>
+  </si>
+  <si>
+    <t>M3N 2H1</t>
+  </si>
+  <si>
+    <t>M3N 2N7</t>
+  </si>
+  <si>
+    <t>M3N 2X7</t>
+  </si>
+  <si>
+    <t>M3N 2G9</t>
+  </si>
+  <si>
+    <t>M3N 1N9</t>
+  </si>
+  <si>
+    <t>M4G 0A3</t>
+  </si>
+  <si>
+    <t>L4K 1Z8</t>
+  </si>
+  <si>
+    <t>L4K 5W5</t>
+  </si>
+  <si>
+    <t>M3N 2Z5</t>
+  </si>
+  <si>
+    <t>M3N 2K3</t>
+  </si>
+  <si>
+    <t>M3N 2G4</t>
+  </si>
+  <si>
+    <t>M3N 1N6</t>
+  </si>
+  <si>
+    <t>M3N 1M6</t>
+  </si>
+  <si>
+    <t>M2R 3G4</t>
+  </si>
+  <si>
+    <t>M3J 1J7</t>
+  </si>
+  <si>
+    <t>M3N 2K4</t>
+  </si>
+  <si>
+    <t>M3J 1J9</t>
+  </si>
+  <si>
+    <t>M3J 1J3</t>
+  </si>
+  <si>
+    <t>L4K 3E2</t>
+  </si>
+  <si>
+    <t>M3J 3K3</t>
+  </si>
+  <si>
+    <t>L4K 3G1</t>
+  </si>
+  <si>
+    <t>M3N 1N8</t>
+  </si>
+  <si>
+    <t>L4K 4S3</t>
+  </si>
+  <si>
+    <t>M3N 2R2</t>
+  </si>
+  <si>
+    <t>M3N 2T8</t>
+  </si>
+  <si>
+    <t>L4K 4N5</t>
+  </si>
+  <si>
+    <t>M3N 2N5</t>
+  </si>
+  <si>
+    <t>L4K 3R1</t>
+  </si>
+  <si>
+    <t>L4K 3E8</t>
+  </si>
+  <si>
+    <t>M3N 2W2</t>
+  </si>
+  <si>
+    <t>M3N 1N3</t>
+  </si>
+  <si>
+    <t>M3J 1V1</t>
+  </si>
+  <si>
+    <t>L4K 3E5</t>
+  </si>
+  <si>
+    <t>L4K 3E4</t>
+  </si>
+  <si>
+    <t>M3J 0H2</t>
+  </si>
+  <si>
+    <t>M3J 0H3</t>
+  </si>
+  <si>
+    <t>M3J 0H4</t>
+  </si>
+  <si>
+    <t>M3J 0H5</t>
+  </si>
+  <si>
+    <t>M3J 0H6</t>
+  </si>
+  <si>
+    <t>M3J 0H7</t>
+  </si>
+  <si>
+    <t>M3J 0H8</t>
+  </si>
+  <si>
+    <t>M3J 0H9</t>
+  </si>
+  <si>
+    <t>M3J 0J1</t>
+  </si>
+  <si>
+    <t>M3J 0J2</t>
+  </si>
+  <si>
+    <t>M3J 0J3</t>
+  </si>
+  <si>
+    <t>M3J 0J4</t>
+  </si>
+  <si>
+    <t>M3J 0J6</t>
+  </si>
+  <si>
+    <t>M3J 0J9</t>
+  </si>
+  <si>
+    <t>M3J 0K1</t>
+  </si>
+  <si>
+    <t>M3J 0K2</t>
+  </si>
+  <si>
+    <t>M3J 0K3</t>
+  </si>
+  <si>
+    <t>M3J 0K4</t>
+  </si>
+  <si>
+    <t>L4K 3E3</t>
+  </si>
+  <si>
+    <t>M3N 1V4</t>
+  </si>
+  <si>
+    <t>M3J 1J4</t>
+  </si>
+  <si>
+    <t>M3J 2G4</t>
+  </si>
+  <si>
+    <t>M3J 2B1</t>
+  </si>
+  <si>
+    <t>M3J 2Y8</t>
+  </si>
+  <si>
+    <t>M3N 1V5</t>
+  </si>
+  <si>
+    <t>M3J 1S1</t>
+  </si>
+  <si>
+    <t>M3J 1J2</t>
+  </si>
+  <si>
+    <t>M3J 2B2</t>
+  </si>
+  <si>
+    <t>M3N 2G8</t>
+  </si>
+  <si>
+    <t>L4K 1A6</t>
+  </si>
+  <si>
+    <t>M3J 2J5</t>
+  </si>
+  <si>
+    <t>M3J 1J1</t>
+  </si>
+  <si>
+    <t>L4K 3E6</t>
+  </si>
+  <si>
+    <t>L4K 3E9</t>
+  </si>
+  <si>
+    <t>M3N 2R3</t>
+  </si>
+  <si>
+    <t>L4K 2J9</t>
+  </si>
+  <si>
+    <t>M3N 1N4</t>
+  </si>
+  <si>
+    <t>M3N 1P1</t>
+  </si>
+  <si>
+    <t>M3J 1J5</t>
+  </si>
+  <si>
+    <t>M3N 3A3</t>
+  </si>
+  <si>
+    <t>M3N 1N2</t>
+  </si>
+  <si>
+    <t>M3J 1N8</t>
+  </si>
+  <si>
+    <t>M3N 1R6</t>
+  </si>
+  <si>
+    <t>M3J 1S2</t>
+  </si>
+  <si>
+    <t>M3J 2J7</t>
+  </si>
+  <si>
+    <t>M3N 1M5</t>
+  </si>
+  <si>
+    <t>M3N 1N7</t>
+  </si>
+  <si>
+    <t>M3N 2X9</t>
+  </si>
+  <si>
+    <t>M3N 1S2</t>
+  </si>
+  <si>
+    <t>M3J 1J6</t>
+  </si>
+  <si>
+    <t>M3J 1R6</t>
+  </si>
+  <si>
+    <t>M3N 2G7</t>
+  </si>
+  <si>
+    <t>L4K 2J8</t>
+  </si>
+  <si>
+    <t>M3J 1H8</t>
+  </si>
+  <si>
+    <t>M3N 1V3</t>
+  </si>
+  <si>
+    <t>M3N 1R5</t>
+  </si>
+  <si>
+    <t>M3N 2N3</t>
+  </si>
+  <si>
+    <t>M3N 2H4</t>
+  </si>
+  <si>
+    <t>M3N 1V2</t>
+  </si>
+  <si>
+    <t>M3J 1R7</t>
+  </si>
+  <si>
+    <t>L4K 2K3</t>
+  </si>
+  <si>
+    <t>M3N 2H5</t>
+  </si>
+  <si>
+    <t>M3J 2J4</t>
+  </si>
+  <si>
+    <t>M3J 1V2</t>
+  </si>
+  <si>
+    <t>M3N 2C4</t>
+  </si>
+  <si>
+    <t>M3N 2N4</t>
+  </si>
+  <si>
+    <t>M3N 1S3</t>
+  </si>
+  <si>
+    <t>M3N 1L6</t>
+  </si>
+  <si>
+    <t>L4K 0B5</t>
+  </si>
+  <si>
+    <t>L4K 2K1</t>
+  </si>
+  <si>
+    <t>M3J 2A7</t>
+  </si>
+  <si>
+    <t>L4K 4C8</t>
+  </si>
+  <si>
+    <t>M2J 2X4</t>
+  </si>
+  <si>
+    <t>M3J 2J6</t>
+  </si>
+  <si>
+    <t>M3J 2E4</t>
+  </si>
+  <si>
+    <t>M3J 2B5</t>
+  </si>
+  <si>
+    <t>L4K 3B8</t>
+  </si>
+  <si>
+    <t>M3N 1M7</t>
+  </si>
+  <si>
+    <t>M3J 2T7</t>
+  </si>
+  <si>
+    <t>M3N 1L7</t>
+  </si>
+  <si>
+    <t>M3J 1H6</t>
+  </si>
+  <si>
+    <t>M3J 1H9</t>
+  </si>
+  <si>
+    <t>M3J 2G3</t>
+  </si>
+  <si>
+    <t>L4K 3E7</t>
+  </si>
+  <si>
+    <t>M3N 1M3</t>
+  </si>
+  <si>
+    <t>M3J 1E9</t>
+  </si>
+  <si>
+    <t>L4K 4R3</t>
+  </si>
+  <si>
+    <t>M3N 2G3</t>
+  </si>
+  <si>
+    <t>L4K 4Y4</t>
+  </si>
+  <si>
+    <t>M3N 1S9</t>
+  </si>
+  <si>
+    <t>M3J 2J2</t>
+  </si>
+  <si>
+    <t>M3N 2Z8</t>
+  </si>
+  <si>
+    <t>M3N 1M1</t>
+  </si>
+  <si>
+    <t>M3N 2N2</t>
+  </si>
+  <si>
+    <t>M3N 2Z1</t>
+  </si>
+  <si>
+    <t>M3J 1P9</t>
+  </si>
+  <si>
+    <t>L4K 3C8</t>
+  </si>
+  <si>
+    <t>M3J 3C7</t>
+  </si>
+  <si>
+    <t>M3N 2Y4</t>
+  </si>
+  <si>
+    <t>M3J 1H7</t>
+  </si>
+  <si>
+    <t>M3J 2M9</t>
+  </si>
+  <si>
+    <t>M3J 2G2</t>
+  </si>
+  <si>
+    <t>M3N 1R3</t>
+  </si>
+  <si>
+    <t>L4K 3C7</t>
+  </si>
+  <si>
+    <t>M3J 2A8</t>
+  </si>
+  <si>
+    <t>M3J 1E8</t>
+  </si>
+  <si>
+    <t>M3N 1S8</t>
+  </si>
+  <si>
+    <t>M3N 1R4</t>
+  </si>
+  <si>
+    <t>M3N 1T7</t>
+  </si>
+  <si>
+    <t>M3N 1S1</t>
+  </si>
+  <si>
+    <t>M3J 2V8</t>
+  </si>
+  <si>
+    <t>M3J 2L9</t>
+  </si>
+  <si>
+    <t>M3J 1H3</t>
+  </si>
+  <si>
+    <t>L4K 2P1</t>
+  </si>
+  <si>
+    <t>M3J 1H5</t>
+  </si>
+  <si>
+    <t>M3J 2B3</t>
+  </si>
+  <si>
+    <t>M3N 1M2</t>
+  </si>
+  <si>
+    <t>M3J 1E6</t>
+  </si>
+  <si>
+    <t>L4K 1A7</t>
+  </si>
+  <si>
+    <t>L4K 2Y2</t>
+  </si>
+  <si>
+    <t>M3N 2C7</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>27 mins</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>32 mins</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>36 mins</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
   </si>
 </sst>
 </file>
@@ -578,13 +1598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,13 +1614,19 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>43.7717834</v>
@@ -608,13 +1634,19 @@
       <c r="D2">
         <v>-79.49956349999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>43.7775621</v>
@@ -622,111 +1654,159 @@
       <c r="D3">
         <v>-79.5076464</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>43.6548565</v>
+        <v>43.7713835</v>
       </c>
       <c r="D4">
-        <v>-79.45992889999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-79.504835</v>
+      </c>
+      <c r="E4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>43.76941190000001</v>
+        <v>43.6548565</v>
       </c>
       <c r="D5">
-        <v>-79.50351719999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-79.45992889999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>43.7693127</v>
+        <v>43.76941190000001</v>
       </c>
       <c r="D6">
-        <v>-79.50404429999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-79.50351719999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>43.7692136</v>
+        <v>43.7754676</v>
       </c>
       <c r="D7">
-        <v>-79.5045715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-79.4978062</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>43.7754676</v>
+        <v>43.7693127</v>
       </c>
       <c r="D8">
-        <v>-79.4978062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-79.50404429999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>43.7687542</v>
+        <v>43.7692136</v>
       </c>
       <c r="D9">
-        <v>-79.50360499999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-79.5045715</v>
+      </c>
+      <c r="E9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>43.7689525</v>
+        <v>43.7687542</v>
       </c>
       <c r="D10">
-        <v>-79.5025507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-79.50360499999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>43.7689501</v>
@@ -734,13 +1814,19 @@
       <c r="D11">
         <v>-79.5049229</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>43.7689989</v>
@@ -748,69 +1834,99 @@
       <c r="D12">
         <v>-79.50545</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>43.7681948</v>
+        <v>43.7689525</v>
       </c>
       <c r="D13">
-        <v>-79.5039565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-79.5025507</v>
+      </c>
+      <c r="E13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>43.7682964</v>
+        <v>43.7681948</v>
       </c>
       <c r="D14">
-        <v>-79.5010571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-79.5039565</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>43.7684947</v>
+        <v>43.7682964</v>
       </c>
       <c r="D15">
-        <v>-79.50000279999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-79.5010571</v>
+      </c>
+      <c r="E15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>43.7687341</v>
+        <v>43.7684947</v>
       </c>
       <c r="D16">
-        <v>-79.4989923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-79.50000279999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>43.7680923</v>
@@ -818,705 +1934,7451 @@
       <c r="D17">
         <v>-79.5076464</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>43.7690064</v>
+        <v>43.7687341</v>
       </c>
       <c r="D18">
-        <v>-79.49793799999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-79.4989923</v>
+      </c>
+      <c r="E18" t="s">
+        <v>395</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>43.7677679</v>
+        <v>43.5617742</v>
       </c>
       <c r="D19">
-        <v>-79.5033415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-79.72316119999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>43.7682654</v>
+        <v>43.7677679</v>
       </c>
       <c r="D20">
-        <v>-79.4991241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-79.5033415</v>
+      </c>
+      <c r="E20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>43.7679516</v>
+        <v>43.7679803</v>
       </c>
       <c r="D21">
-        <v>-79.50052989999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>43.7681329</v>
+        <v>43.7846797</v>
       </c>
       <c r="D22">
-        <v>-79.50009059999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-79.47445359999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>43.7683645</v>
+        <v>43.7791357</v>
       </c>
       <c r="D23">
-        <v>-79.49859699999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-79.5118634</v>
+      </c>
+      <c r="E23" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>43.7675695</v>
+        <v>43.7690064</v>
       </c>
       <c r="D24">
-        <v>-79.5043958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-79.49793799999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>43.7674232</v>
+        <v>43.7679516</v>
       </c>
       <c r="D25">
-        <v>-79.50281430000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-79.50052989999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>43.7728399</v>
+        <v>43.7675695</v>
       </c>
       <c r="D26">
-        <v>-79.49499449999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-79.5043958</v>
+      </c>
+      <c r="E26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>43.76908969999999</v>
+        <v>43.7826764</v>
       </c>
       <c r="D27">
-        <v>-79.4968397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-79.4877891</v>
+      </c>
+      <c r="E27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>43.76753859999999</v>
+        <v>43.7681329</v>
       </c>
       <c r="D28">
-        <v>-79.5024629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-79.50009059999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>395</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>43.7671923</v>
+        <v>43.7682654</v>
       </c>
       <c r="D29">
-        <v>-79.50351719999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-79.4991241</v>
+      </c>
+      <c r="E29" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>43.7685629</v>
+        <v>43.77072</v>
       </c>
       <c r="D30">
-        <v>-79.4975426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-79.5104577</v>
+      </c>
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>43.7675743</v>
+        <v>43.7674232</v>
       </c>
       <c r="D31">
-        <v>-79.49965130000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-79.50281430000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>43.7677207</v>
+        <v>43.76753859999999</v>
       </c>
       <c r="D32">
-        <v>-79.5012328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-79.5024629</v>
+      </c>
+      <c r="E32" t="s">
+        <v>395</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>43.7677037</v>
+        <v>43.7728399</v>
       </c>
       <c r="D33">
-        <v>-79.50184779999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-79.49499449999999</v>
+      </c>
+      <c r="E33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>43.767376</v>
+        <v>43.7671923</v>
       </c>
       <c r="D34">
-        <v>-79.5007057</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-79.50351719999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>43.76872789999999</v>
+        <v>43.7683645</v>
       </c>
       <c r="D35">
-        <v>-79.4969275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-79.49859699999999</v>
+      </c>
+      <c r="E35" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>43.7670459</v>
+        <v>43.76908969999999</v>
       </c>
       <c r="D36">
-        <v>-79.50193569999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-79.4968397</v>
+      </c>
+      <c r="E36" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>43.7677726</v>
+        <v>43.7677207</v>
       </c>
       <c r="D37">
-        <v>-79.49859699999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-79.5012328</v>
+      </c>
+      <c r="E37" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>43.7681499</v>
+        <v>43.7677037</v>
       </c>
       <c r="D38">
-        <v>-79.4994756</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-79.50184779999999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>43.7684637</v>
+        <v>43.7675743</v>
       </c>
       <c r="D39">
-        <v>-79.4980698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-79.49965130000001</v>
+      </c>
+      <c r="E39" t="s">
+        <v>397</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>43.7670109</v>
+        <v>43.7685629</v>
       </c>
       <c r="D40">
-        <v>-79.5039565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-79.4975426</v>
+      </c>
+      <c r="E40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>43.7668475</v>
+        <v>43.767376</v>
       </c>
       <c r="D41">
-        <v>-79.50299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-79.5007057</v>
+      </c>
+      <c r="E41" t="s">
+        <v>395</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>43.767971</v>
+        <v>43.7670109</v>
       </c>
       <c r="D42">
-        <v>-79.4975426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-79.5039565</v>
+      </c>
+      <c r="E42" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>43.7679803</v>
+        <v>43.7670459</v>
       </c>
       <c r="D43">
-        <v>-79.48726189999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-79.50193569999999</v>
+      </c>
+      <c r="E43" t="s">
+        <v>395</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>43.7671629</v>
+        <v>43.7679803</v>
       </c>
       <c r="D44">
-        <v>-79.50000279999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>401</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>43.76988009999999</v>
+        <v>43.7668475</v>
       </c>
       <c r="D45">
-        <v>-79.5011078</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-79.50299</v>
+      </c>
+      <c r="E45" t="s">
+        <v>395</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>43.7679803</v>
+        <v>43.76988009999999</v>
       </c>
       <c r="D46">
-        <v>-79.48726189999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-79.5011078</v>
+      </c>
+      <c r="E46" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>43.7846797</v>
+        <v>43.7677726</v>
       </c>
       <c r="D47">
-        <v>-79.47445359999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-79.49859699999999</v>
+      </c>
+      <c r="E47" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48">
-        <v>43.7669939</v>
+        <v>43.7681499</v>
       </c>
       <c r="D48">
-        <v>-79.5045715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-79.4994756</v>
+      </c>
+      <c r="E48" t="s">
+        <v>395</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49">
-        <v>43.5617742</v>
+        <v>43.76872789999999</v>
       </c>
       <c r="D49">
-        <v>-79.72316119999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-79.4969275</v>
+      </c>
+      <c r="E49" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>43.7791357</v>
+        <v>43.7669939</v>
       </c>
       <c r="D50">
-        <v>-79.5118634</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-79.5045715</v>
+      </c>
+      <c r="E50" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51">
-        <v>43.766784</v>
+        <v>43.7684637</v>
       </c>
       <c r="D51">
-        <v>-79.5007057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-79.4980698</v>
+      </c>
+      <c r="E51" t="s">
+        <v>395</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52">
-        <v>43.7666491</v>
+        <v>43.7671629</v>
       </c>
       <c r="D52">
-        <v>-79.50404429999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-79.50000279999999</v>
+      </c>
+      <c r="E52" t="s">
+        <v>395</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>43.77072</v>
+        <v>43.767971</v>
       </c>
       <c r="D53">
-        <v>-79.5104577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-79.4975426</v>
+      </c>
+      <c r="E53" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>43.7662238</v>
+        <v>43.7666491</v>
       </c>
       <c r="D54">
-        <v>-79.50184779999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-79.50404429999999</v>
+      </c>
+      <c r="E54" t="s">
+        <v>399</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C55">
-        <v>43.7666422</v>
+        <v>43.7759322</v>
       </c>
       <c r="D55">
-        <v>-79.5027704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-79.4932371</v>
+      </c>
+      <c r="E55" t="s">
+        <v>398</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>43.7759322</v>
+        <v>43.7679803</v>
       </c>
       <c r="D56">
-        <v>-79.4932371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E56" t="s">
+        <v>401</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>43.7675596</v>
+        <v>43.7679803</v>
       </c>
       <c r="D57">
-        <v>-79.4978941</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>43.6491644</v>
+        <v>43.7726221</v>
       </c>
       <c r="D58">
-        <v>-79.4236233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-79.5150259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C59">
-        <v>43.7681034</v>
+        <v>43.7666422</v>
       </c>
       <c r="D59">
-        <v>-79.4965761</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-79.5027704</v>
+      </c>
+      <c r="E59" t="s">
+        <v>395</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C60">
-        <v>43.7679803</v>
+        <v>43.7662238</v>
       </c>
       <c r="D60">
-        <v>-79.48726189999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-79.50184779999999</v>
+      </c>
+      <c r="E60" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C61">
-        <v>43.7679803</v>
+        <v>43.766784</v>
       </c>
       <c r="D61">
-        <v>-79.48726189999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-79.5007057</v>
+      </c>
+      <c r="E61" t="s">
+        <v>395</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62">
-        <v>43.7667027</v>
+        <v>43.7664853</v>
       </c>
       <c r="D62">
-        <v>-79.499827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-79.5034732</v>
+      </c>
+      <c r="E62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C63">
-        <v>43.7826764</v>
+        <v>43.7675596</v>
       </c>
       <c r="D63">
-        <v>-79.4877891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-79.4978941</v>
+      </c>
+      <c r="E63" t="s">
+        <v>397</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64">
-        <v>43.7671803</v>
+        <v>43.6491644</v>
       </c>
       <c r="D64">
-        <v>-79.4989923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-79.4236233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>403</v>
+      </c>
+      <c r="F64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C65">
-        <v>43.7664853</v>
+        <v>43.7667027</v>
       </c>
       <c r="D65">
-        <v>-79.5034732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-79.499827</v>
+      </c>
+      <c r="E65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C66">
-        <v>43.7687286</v>
+        <v>43.7681034</v>
       </c>
       <c r="D66">
-        <v>-79.4961368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-79.4965761</v>
+      </c>
+      <c r="E66" t="s">
+        <v>397</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>43.7671803</v>
+      </c>
+      <c r="D67">
+        <v>-79.4989923</v>
+      </c>
+      <c r="E67" t="s">
+        <v>397</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>43.7671641</v>
+      </c>
+      <c r="D68">
+        <v>-79.4988166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>397</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>43.7687286</v>
+      </c>
+      <c r="D69">
+        <v>-79.4961368</v>
+      </c>
+      <c r="E69" t="s">
+        <v>401</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="C67">
-        <v>43.7671641</v>
-      </c>
-      <c r="D67">
-        <v>-79.4988166</v>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>43.7661222</v>
+      </c>
+      <c r="D70">
+        <v>-79.5047472</v>
+      </c>
+      <c r="E70" t="s">
+        <v>399</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>43.76724730000001</v>
+      </c>
+      <c r="D71">
+        <v>-79.4977183</v>
+      </c>
+      <c r="E71" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>43.7664559</v>
+      </c>
+      <c r="D72">
+        <v>-79.4999588</v>
+      </c>
+      <c r="E72" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>43.76607509999999</v>
+      </c>
+      <c r="D73">
+        <v>-79.5026386</v>
+      </c>
+      <c r="E73" t="s">
+        <v>395</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <v>43.7748802</v>
+      </c>
+      <c r="D74">
+        <v>-79.4930614</v>
+      </c>
+      <c r="E74" t="s">
+        <v>398</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>43.76660469999999</v>
+      </c>
+      <c r="D75">
+        <v>-79.49916809999999</v>
+      </c>
+      <c r="E75" t="s">
+        <v>397</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>43.766058</v>
+      </c>
+      <c r="D76">
+        <v>-79.50325359999999</v>
+      </c>
+      <c r="E76" t="s">
+        <v>395</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>43.7676262</v>
+      </c>
+      <c r="D77">
+        <v>-79.4970154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>397</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>43.7668112</v>
+      </c>
+      <c r="D78">
+        <v>-79.4982016</v>
+      </c>
+      <c r="E78" t="s">
+        <v>397</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>43.7657775</v>
+      </c>
+      <c r="D79">
+        <v>-79.50421999999999</v>
+      </c>
+      <c r="E79" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>43.7658767</v>
+      </c>
+      <c r="D80">
+        <v>-79.50369289999999</v>
+      </c>
+      <c r="E80" t="s">
+        <v>395</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>43.7713084</v>
+      </c>
+      <c r="D81">
+        <v>-79.51362039999999</v>
+      </c>
+      <c r="E81" t="s">
+        <v>395</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>43.76728139999999</v>
+      </c>
+      <c r="D82">
+        <v>-79.4964882</v>
+      </c>
+      <c r="E82" t="s">
+        <v>397</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>43.7655962</v>
+      </c>
+      <c r="D83">
+        <v>-79.5046593</v>
+      </c>
+      <c r="E83" t="s">
+        <v>395</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>43.7675448</v>
+      </c>
+      <c r="D84">
+        <v>-79.4961368</v>
+      </c>
+      <c r="E84" t="s">
+        <v>397</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>43.7670835</v>
+      </c>
+      <c r="D85">
+        <v>-79.4971472</v>
+      </c>
+      <c r="E85" t="s">
+        <v>397</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>43.7664904</v>
+      </c>
+      <c r="D86">
+        <v>-79.49833339999999</v>
+      </c>
+      <c r="E86" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>43.7654998</v>
+      </c>
+      <c r="D87">
+        <v>-79.5024189</v>
+      </c>
+      <c r="E87" t="s">
+        <v>397</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>43.7771158</v>
+      </c>
+      <c r="D88">
+        <v>-79.4932371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>393</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>43.7663595</v>
+      </c>
+      <c r="D89">
+        <v>-79.4977183</v>
+      </c>
+      <c r="E89" t="s">
+        <v>397</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>43.7653839</v>
+      </c>
+      <c r="D90">
+        <v>-79.5031657</v>
+      </c>
+      <c r="E90" t="s">
+        <v>395</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>43.77060700000001</v>
+      </c>
+      <c r="D91">
+        <v>-79.49165549999999</v>
+      </c>
+      <c r="E91" t="s">
+        <v>394</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>43.7659465</v>
+      </c>
+      <c r="D92">
+        <v>-79.49965130000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>397</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>43.7745312</v>
+      </c>
+      <c r="D93">
+        <v>-79.51326899999999</v>
+      </c>
+      <c r="E93" t="s">
+        <v>397</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>43.7715939</v>
+      </c>
+      <c r="D94">
+        <v>-79.4911283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>43.7666887</v>
+      </c>
+      <c r="D95">
+        <v>-79.49727899999999</v>
+      </c>
+      <c r="E95" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>43.7671504</v>
+      </c>
+      <c r="D96">
+        <v>-79.49587319999999</v>
+      </c>
+      <c r="E96" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>43.7665578</v>
+      </c>
+      <c r="D97">
+        <v>-79.496664</v>
+      </c>
+      <c r="E97" t="s">
+        <v>401</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>43.76540259999999</v>
+      </c>
+      <c r="D98">
+        <v>-79.5009692</v>
+      </c>
+      <c r="E98" t="s">
+        <v>395</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>43.7662921</v>
+      </c>
+      <c r="D99">
+        <v>-79.4993877</v>
+      </c>
+      <c r="E99" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <v>43.765088</v>
+      </c>
+      <c r="D100">
+        <v>-79.5031657</v>
+      </c>
+      <c r="E100" t="s">
+        <v>395</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>43.7652538</v>
+      </c>
+      <c r="D101">
+        <v>-79.50175999999999</v>
+      </c>
+      <c r="E101" t="s">
+        <v>397</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>43.7676277</v>
+      </c>
+      <c r="D102">
+        <v>-79.4954338</v>
+      </c>
+      <c r="E102" t="s">
+        <v>401</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>43.76556919999999</v>
+      </c>
+      <c r="D103">
+        <v>-79.49877269999999</v>
+      </c>
+      <c r="E103" t="s">
+        <v>401</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <v>43.7661449</v>
+      </c>
+      <c r="D104">
+        <v>-79.49859699999999</v>
+      </c>
+      <c r="E104" t="s">
+        <v>401</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105">
+        <v>43.7653383</v>
+      </c>
+      <c r="D105">
+        <v>-79.4994756</v>
+      </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>43.7657838</v>
+      </c>
+      <c r="D106">
+        <v>-79.4978941</v>
+      </c>
+      <c r="E106" t="s">
+        <v>401</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>43.7780952</v>
+      </c>
+      <c r="D107">
+        <v>-79.5006178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>393</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>43.7674627</v>
+      </c>
+      <c r="D108">
+        <v>-79.5120391</v>
+      </c>
+      <c r="E108" t="s">
+        <v>404</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109">
+        <v>43.76675609999999</v>
+      </c>
+      <c r="D109">
+        <v>-79.49560959999999</v>
+      </c>
+      <c r="E109" t="s">
+        <v>397</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>43.7659821</v>
+      </c>
+      <c r="D110">
+        <v>-79.4968397</v>
+      </c>
+      <c r="E110" t="s">
+        <v>401</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>43.7646757</v>
+      </c>
+      <c r="D111">
+        <v>-79.5043079</v>
+      </c>
+      <c r="E111" t="s">
+        <v>397</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112">
+        <v>43.766361</v>
+      </c>
+      <c r="D112">
+        <v>-79.4961368</v>
+      </c>
+      <c r="E112" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>43.7668058</v>
+      </c>
+      <c r="D113">
+        <v>-79.5113363</v>
+      </c>
+      <c r="E113" t="s">
+        <v>404</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>43.781159</v>
+      </c>
+      <c r="D114">
+        <v>-79.4937644</v>
+      </c>
+      <c r="E114" t="s">
+        <v>394</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115">
+        <v>43.7662796</v>
+      </c>
+      <c r="D115">
+        <v>-79.4952581</v>
+      </c>
+      <c r="E115" t="s">
+        <v>401</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>43.7737631</v>
+      </c>
+      <c r="D116">
+        <v>-79.4921827</v>
+      </c>
+      <c r="E116" t="s">
+        <v>394</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>43.7666747</v>
+      </c>
+      <c r="D117">
+        <v>-79.49473089999999</v>
+      </c>
+      <c r="E117" t="s">
+        <v>401</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>43.7651634</v>
+      </c>
+      <c r="D118">
+        <v>-79.50957919999999</v>
+      </c>
+      <c r="E118" t="s">
+        <v>405</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>43.7640821</v>
+      </c>
+      <c r="D119">
+        <v>-79.50588929999999</v>
+      </c>
+      <c r="E119" t="s">
+        <v>395</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>43.7657211</v>
+      </c>
+      <c r="D120">
+        <v>-79.5108091</v>
+      </c>
+      <c r="E120" t="s">
+        <v>404</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>43.77639509999999</v>
+      </c>
+      <c r="D121">
+        <v>-79.4902496</v>
+      </c>
+      <c r="E121" t="s">
+        <v>402</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>43.762838</v>
+      </c>
+      <c r="D122">
+        <v>-79.5004421</v>
+      </c>
+      <c r="E122" t="s">
+        <v>397</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123">
+        <v>43.7649649</v>
+      </c>
+      <c r="D123">
+        <v>-79.5106334</v>
+      </c>
+      <c r="E123" t="s">
+        <v>404</v>
+      </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
+        <v>43.7675602</v>
+      </c>
+      <c r="D124">
+        <v>-79.51309329999999</v>
+      </c>
+      <c r="E124" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>43.7751449</v>
+      </c>
+      <c r="D125">
+        <v>-79.4911283</v>
+      </c>
+      <c r="E125" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>43.768412</v>
+      </c>
+      <c r="D126">
+        <v>-79.5159044</v>
+      </c>
+      <c r="E126" t="s">
+        <v>404</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>43.7656869</v>
+      </c>
+      <c r="D127">
+        <v>-79.5120391</v>
+      </c>
+      <c r="E127" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>43.7692944</v>
+      </c>
+      <c r="D128">
+        <v>-79.4886679</v>
+      </c>
+      <c r="E128" t="s">
+        <v>394</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129">
+        <v>43.7781039</v>
+      </c>
+      <c r="D129">
+        <v>-79.4911283</v>
+      </c>
+      <c r="E129" t="s">
+        <v>398</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130">
+        <v>43.7689408</v>
+      </c>
+      <c r="D130">
+        <v>-79.51362039999999</v>
+      </c>
+      <c r="E130" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131">
+        <v>43.7640575</v>
+      </c>
+      <c r="D131">
+        <v>-79.4976305</v>
+      </c>
+      <c r="E131" t="s">
+        <v>397</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>43.7784719</v>
+      </c>
+      <c r="D132">
+        <v>-79.5174856</v>
+      </c>
+      <c r="E132" t="s">
+        <v>395</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133">
+        <v>43.7630998</v>
+      </c>
+      <c r="D133">
+        <v>-79.50167209999999</v>
+      </c>
+      <c r="E133" t="s">
+        <v>399</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134">
+        <v>43.7640616</v>
+      </c>
+      <c r="D134">
+        <v>-79.5096671</v>
+      </c>
+      <c r="E134" t="s">
+        <v>404</v>
+      </c>
+      <c r="F134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135">
+        <v>43.7743577</v>
+      </c>
+      <c r="D135">
+        <v>-79.48901939999999</v>
+      </c>
+      <c r="E135" t="s">
+        <v>393</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>43.7642584</v>
+      </c>
+      <c r="D136">
+        <v>-79.5101942</v>
+      </c>
+      <c r="E136" t="s">
+        <v>405</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137">
+        <v>43.7642233</v>
+      </c>
+      <c r="D137">
+        <v>-79.49622459999999</v>
+      </c>
+      <c r="E137" t="s">
+        <v>397</v>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138">
+        <v>43.76627879999999</v>
+      </c>
+      <c r="D138">
+        <v>-79.5120391</v>
+      </c>
+      <c r="E138" t="s">
+        <v>404</v>
+      </c>
+      <c r="F138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139">
+        <v>43.7810613</v>
+      </c>
+      <c r="D139">
+        <v>-79.49270989999999</v>
+      </c>
+      <c r="E139" t="s">
+        <v>394</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140">
+        <v>43.7772203</v>
+      </c>
+      <c r="D140">
+        <v>-79.4863831</v>
+      </c>
+      <c r="E140" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141">
+        <v>43.766638</v>
+      </c>
+      <c r="D141">
+        <v>-79.5143231</v>
+      </c>
+      <c r="E141" t="s">
+        <v>399</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142">
+        <v>43.7817196</v>
+      </c>
+      <c r="D142">
+        <v>-79.49183119999999</v>
+      </c>
+      <c r="E142" t="s">
+        <v>393</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143">
+        <v>43.76270299999999</v>
+      </c>
+      <c r="D143">
+        <v>-79.5037808</v>
+      </c>
+      <c r="E143" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144">
+        <v>43.7646851</v>
+      </c>
+      <c r="D144">
+        <v>-79.49481879999999</v>
+      </c>
+      <c r="E144" t="s">
+        <v>397</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>43.7645851</v>
+      </c>
+      <c r="D145">
+        <v>-79.5121269</v>
+      </c>
+      <c r="E145" t="s">
+        <v>404</v>
+      </c>
+      <c r="F145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146">
+        <v>43.763651</v>
+      </c>
+      <c r="D146">
+        <v>-79.50922779999999</v>
+      </c>
+      <c r="E146" t="s">
+        <v>404</v>
+      </c>
+      <c r="F146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147">
+        <v>43.7719278</v>
+      </c>
+      <c r="D147">
+        <v>-79.4851529</v>
+      </c>
+      <c r="E147" t="s">
+        <v>393</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148">
+        <v>43.7634315</v>
+      </c>
+      <c r="D148">
+        <v>-79.4988606</v>
+      </c>
+      <c r="E148" t="s">
+        <v>395</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149">
+        <v>43.7640274</v>
+      </c>
+      <c r="D149">
+        <v>-79.510897</v>
+      </c>
+      <c r="E149" t="s">
+        <v>405</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150">
+        <v>43.77728279999999</v>
+      </c>
+      <c r="D150">
+        <v>-79.4902496</v>
+      </c>
+      <c r="E150" t="s">
+        <v>398</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151">
+        <v>43.76719569999999</v>
+      </c>
+      <c r="D151">
+        <v>-79.515553</v>
+      </c>
+      <c r="E151" t="s">
+        <v>399</v>
+      </c>
+      <c r="F151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>43.7773832</v>
+      </c>
+      <c r="D152">
+        <v>-79.48814059999999</v>
+      </c>
+      <c r="E152" t="s">
+        <v>398</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
+        <v>43.7691014</v>
+      </c>
+      <c r="D153">
+        <v>-79.5169586</v>
+      </c>
+      <c r="E153" t="s">
+        <v>397</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154">
+        <v>43.7699874</v>
+      </c>
+      <c r="D154">
+        <v>-79.5185398</v>
+      </c>
+      <c r="E154" t="s">
+        <v>395</v>
+      </c>
+      <c r="F154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>43.7648508</v>
+      </c>
+      <c r="D155">
+        <v>-79.4934129</v>
+      </c>
+      <c r="E155" t="s">
+        <v>401</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156">
+        <v>43.7621174</v>
+      </c>
+      <c r="D156">
+        <v>-79.49745469999999</v>
+      </c>
+      <c r="E156" t="s">
+        <v>397</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157">
+        <v>43.7672931</v>
+      </c>
+      <c r="D157">
+        <v>-79.5166072</v>
+      </c>
+      <c r="E157" t="s">
+        <v>399</v>
+      </c>
+      <c r="F157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158">
+        <v>43.7821725</v>
+      </c>
+      <c r="D158">
+        <v>-79.49991490000001</v>
+      </c>
+      <c r="E158" t="s">
+        <v>394</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
+        <v>43.7774484</v>
+      </c>
+      <c r="D159">
+        <v>-79.4888436</v>
+      </c>
+      <c r="E159" t="s">
+        <v>398</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160">
+        <v>43.7792888</v>
+      </c>
+      <c r="D160">
+        <v>-79.4895466</v>
+      </c>
+      <c r="E160" t="s">
+        <v>393</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161">
+        <v>43.7641384</v>
+      </c>
+      <c r="D161">
+        <v>-79.5144988</v>
+      </c>
+      <c r="E161" t="s">
+        <v>405</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162">
+        <v>43.76469789999999</v>
+      </c>
+      <c r="D162">
+        <v>-79.5141474</v>
+      </c>
+      <c r="E162" t="s">
+        <v>405</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163">
+        <v>43.7640744</v>
+      </c>
+      <c r="D163">
+        <v>-79.5130054</v>
+      </c>
+      <c r="E163" t="s">
+        <v>404</v>
+      </c>
+      <c r="F163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164">
+        <v>43.7832952</v>
+      </c>
+      <c r="D164">
+        <v>-79.4944673</v>
+      </c>
+      <c r="E164" t="s">
+        <v>393</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165">
+        <v>43.7651822</v>
+      </c>
+      <c r="D165">
+        <v>-79.49060110000001</v>
+      </c>
+      <c r="E165" t="s">
+        <v>397</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166">
+        <v>43.7670278</v>
+      </c>
+      <c r="D166">
+        <v>-79.5185398</v>
+      </c>
+      <c r="E166" t="s">
+        <v>399</v>
+      </c>
+      <c r="F166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167">
+        <v>43.77072</v>
+      </c>
+      <c r="D167">
+        <v>-79.5104577</v>
+      </c>
+      <c r="E167" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168">
+        <v>43.765714</v>
+      </c>
+      <c r="D168">
+        <v>-79.5171342</v>
+      </c>
+      <c r="E168" t="s">
+        <v>399</v>
+      </c>
+      <c r="F168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169">
+        <v>43.7613239</v>
+      </c>
+      <c r="D169">
+        <v>-79.50167209999999</v>
+      </c>
+      <c r="E169" t="s">
+        <v>399</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170">
+        <v>43.7684408</v>
+      </c>
+      <c r="D170">
+        <v>-79.51941819999999</v>
+      </c>
+      <c r="E170" t="s">
+        <v>395</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>43.7650165</v>
+      </c>
+      <c r="D171">
+        <v>-79.492007</v>
+      </c>
+      <c r="E171" t="s">
+        <v>399</v>
+      </c>
+      <c r="F171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172">
+        <v>43.7802423</v>
+      </c>
+      <c r="D172">
+        <v>-79.4894587</v>
+      </c>
+      <c r="E172" t="s">
+        <v>393</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173">
+        <v>43.7631075</v>
+      </c>
+      <c r="D173">
+        <v>-79.4937644</v>
+      </c>
+      <c r="E173" t="s">
+        <v>397</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>43.779487</v>
+      </c>
+      <c r="D174">
+        <v>-79.4884921</v>
+      </c>
+      <c r="E174" t="s">
+        <v>393</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175">
+        <v>43.7626585</v>
+      </c>
+      <c r="D175">
+        <v>-79.5144988</v>
+      </c>
+      <c r="E175" t="s">
+        <v>404</v>
+      </c>
+      <c r="F175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176">
+        <v>43.760927</v>
+      </c>
+      <c r="D176">
+        <v>-79.5037808</v>
+      </c>
+      <c r="E176" t="s">
+        <v>399</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>43.7728133</v>
+      </c>
+      <c r="D177">
+        <v>-79.52029660000001</v>
+      </c>
+      <c r="E177" t="s">
+        <v>397</v>
+      </c>
+      <c r="F177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>43.7709145</v>
+      </c>
+      <c r="D178">
+        <v>-79.5201649</v>
+      </c>
+      <c r="E178" t="s">
+        <v>395</v>
+      </c>
+      <c r="F178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>43.7693612</v>
+      </c>
+      <c r="D179">
+        <v>-79.51976959999999</v>
+      </c>
+      <c r="E179" t="s">
+        <v>395</v>
+      </c>
+      <c r="F179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>43.77044619999999</v>
+      </c>
+      <c r="D180">
+        <v>-79.5199013</v>
+      </c>
+      <c r="E180" t="s">
+        <v>395</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181">
+        <v>43.7637441</v>
+      </c>
+      <c r="D181">
+        <v>-79.5142353</v>
+      </c>
+      <c r="E181" t="s">
+        <v>404</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182">
+        <v>43.7817535</v>
+      </c>
+      <c r="D182">
+        <v>-79.49060110000001</v>
+      </c>
+      <c r="E182" t="s">
+        <v>393</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183">
+        <v>43.77547879999999</v>
+      </c>
+      <c r="D183">
+        <v>-79.4851529</v>
+      </c>
+      <c r="E183" t="s">
+        <v>398</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184">
+        <v>43.781459</v>
+      </c>
+      <c r="D184">
+        <v>-79.48901939999999</v>
+      </c>
+      <c r="E184" t="s">
+        <v>393</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185">
+        <v>43.7782396</v>
+      </c>
+      <c r="D185">
+        <v>-79.4862074</v>
+      </c>
+      <c r="E185" t="s">
+        <v>393</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186">
+        <v>43.7829031</v>
+      </c>
+      <c r="D186">
+        <v>-79.49183119999999</v>
+      </c>
+      <c r="E186" t="s">
+        <v>394</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>43.7638</v>
+      </c>
+      <c r="D187">
+        <v>-79.49165549999999</v>
+      </c>
+      <c r="E187" t="s">
+        <v>397</v>
+      </c>
+      <c r="F187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>43.7609644</v>
+      </c>
+      <c r="D188">
+        <v>-79.4993877</v>
+      </c>
+      <c r="E188" t="s">
+        <v>397</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189">
+        <v>43.7649528</v>
+      </c>
+      <c r="D189">
+        <v>-79.4897223</v>
+      </c>
+      <c r="E189" t="s">
+        <v>397</v>
+      </c>
+      <c r="F189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190">
+        <v>43.7613155</v>
+      </c>
+      <c r="D190">
+        <v>-79.50957919999999</v>
+      </c>
+      <c r="E190" t="s">
+        <v>404</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191">
+        <v>43.7613286</v>
+      </c>
+      <c r="D191">
+        <v>-79.4969275</v>
+      </c>
+      <c r="E191" t="s">
+        <v>399</v>
+      </c>
+      <c r="F191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192">
+        <v>43.7690633</v>
+      </c>
+      <c r="D192">
+        <v>-79.5213507</v>
+      </c>
+      <c r="E192" t="s">
+        <v>399</v>
+      </c>
+      <c r="F192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193">
+        <v>43.7600407</v>
+      </c>
+      <c r="D193">
+        <v>-79.5021993</v>
+      </c>
+      <c r="E193" t="s">
+        <v>395</v>
+      </c>
+      <c r="F193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194">
+        <v>43.7690633</v>
+      </c>
+      <c r="D194">
+        <v>-79.5213507</v>
+      </c>
+      <c r="E194" t="s">
+        <v>399</v>
+      </c>
+      <c r="F194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195">
+        <v>43.7622343</v>
+      </c>
+      <c r="D195">
+        <v>-79.511512</v>
+      </c>
+      <c r="E195" t="s">
+        <v>404</v>
+      </c>
+      <c r="F195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196">
+        <v>43.7704114</v>
+      </c>
+      <c r="D196">
+        <v>-79.5215264</v>
+      </c>
+      <c r="E196" t="s">
+        <v>397</v>
+      </c>
+      <c r="F196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197">
+        <v>43.7632468</v>
+      </c>
+      <c r="D197">
+        <v>-79.5176613</v>
+      </c>
+      <c r="E197" t="s">
+        <v>404</v>
+      </c>
+      <c r="F197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198">
+        <v>43.78221500000001</v>
+      </c>
+      <c r="D198">
+        <v>-79.4891951</v>
+      </c>
+      <c r="E198" t="s">
+        <v>393</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199">
+        <v>43.76043749999999</v>
+      </c>
+      <c r="D199">
+        <v>-79.50009059999999</v>
+      </c>
+      <c r="E199" t="s">
+        <v>395</v>
+      </c>
+      <c r="F199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200">
+        <v>43.7710357</v>
+      </c>
+      <c r="D200">
+        <v>-79.5218778</v>
+      </c>
+      <c r="E200" t="s">
+        <v>399</v>
+      </c>
+      <c r="F200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201">
+        <v>43.7845452</v>
+      </c>
+      <c r="D201">
+        <v>-79.4935886</v>
+      </c>
+      <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202">
+        <v>43.7609675</v>
+      </c>
+      <c r="D202">
+        <v>-79.49622459999999</v>
+      </c>
+      <c r="E202" t="s">
+        <v>399</v>
+      </c>
+      <c r="F202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203">
+        <v>43.77225199999999</v>
+      </c>
+      <c r="D203">
+        <v>-79.5222291</v>
+      </c>
+      <c r="E203" t="s">
+        <v>395</v>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204">
+        <v>43.7721871</v>
+      </c>
+      <c r="D204">
+        <v>-79.5215264</v>
+      </c>
+      <c r="E204" t="s">
+        <v>399</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205">
+        <v>43.7684724</v>
+      </c>
+      <c r="D205">
+        <v>-79.52056020000001</v>
+      </c>
+      <c r="E205" t="s">
+        <v>399</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206">
+        <v>43.7600764</v>
+      </c>
+      <c r="D206">
+        <v>-79.4993877</v>
+      </c>
+      <c r="E206" t="s">
+        <v>395</v>
+      </c>
+      <c r="F206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207">
+        <v>43.7639381</v>
+      </c>
+      <c r="D207">
+        <v>-79.5171342</v>
+      </c>
+      <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208">
+        <v>43.7601332</v>
+      </c>
+      <c r="D208">
+        <v>-79.50799789999999</v>
+      </c>
+      <c r="E208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209">
+        <v>43.7790608</v>
+      </c>
+      <c r="D209">
+        <v>-79.48708610000001</v>
+      </c>
+      <c r="E209" t="s">
+        <v>393</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210">
+        <v>43.7822774</v>
+      </c>
+      <c r="D210">
+        <v>-79.4930614</v>
+      </c>
+      <c r="E210" t="s">
+        <v>393</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211">
+        <v>43.7613641</v>
+      </c>
+      <c r="D211">
+        <v>-79.4941158</v>
+      </c>
+      <c r="E211" t="s">
+        <v>397</v>
+      </c>
+      <c r="F211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212">
+        <v>43.7838897</v>
+      </c>
+      <c r="D212">
+        <v>-79.491304</v>
+      </c>
+      <c r="E212" t="s">
+        <v>393</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213">
+        <v>43.7833658</v>
+      </c>
+      <c r="D213">
+        <v>-79.4888436</v>
+      </c>
+      <c r="E213" t="s">
+        <v>393</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214">
+        <v>43.761908</v>
+      </c>
+      <c r="D214">
+        <v>-79.49279779999999</v>
+      </c>
+      <c r="E214" t="s">
+        <v>397</v>
+      </c>
+      <c r="F214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215">
+        <v>43.7738634</v>
+      </c>
+      <c r="D215">
+        <v>-79.5220535</v>
+      </c>
+      <c r="E215" t="s">
+        <v>397</v>
+      </c>
+      <c r="F215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216">
+        <v>43.7811984</v>
+      </c>
+      <c r="D216">
+        <v>-79.4862074</v>
+      </c>
+      <c r="E216" t="s">
+        <v>393</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217">
+        <v>43.781068</v>
+      </c>
+      <c r="D217">
+        <v>-79.48480139999999</v>
+      </c>
+      <c r="E217" t="s">
+        <v>394</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218">
+        <v>43.7601771</v>
+      </c>
+      <c r="D218">
+        <v>-79.49727899999999</v>
+      </c>
+      <c r="E218" t="s">
+        <v>395</v>
+      </c>
+      <c r="F218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219">
+        <v>43.7623201</v>
+      </c>
+      <c r="D219">
+        <v>-79.49165549999999</v>
+      </c>
+      <c r="E219" t="s">
+        <v>397</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220">
+        <v>43.7576416</v>
+      </c>
+      <c r="D220">
+        <v>-79.5002664</v>
+      </c>
+      <c r="E220" t="s">
+        <v>395</v>
+      </c>
+      <c r="F220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221">
+        <v>43.76447690000001</v>
+      </c>
+      <c r="D221">
+        <v>-79.48858</v>
+      </c>
+      <c r="E221" t="s">
+        <v>401</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222">
+        <v>43.7683397</v>
+      </c>
+      <c r="D222">
+        <v>-79.5215264</v>
+      </c>
+      <c r="E222" t="s">
+        <v>395</v>
+      </c>
+      <c r="F222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223">
+        <v>43.7701803</v>
+      </c>
+      <c r="D223">
+        <v>-79.5222291</v>
+      </c>
+      <c r="E223" t="s">
+        <v>399</v>
+      </c>
+      <c r="F223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224">
+        <v>43.759412</v>
+      </c>
+      <c r="D224">
+        <v>-79.50580149999999</v>
+      </c>
+      <c r="E224" t="s">
+        <v>399</v>
+      </c>
+      <c r="F224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225">
+        <v>43.7614803</v>
+      </c>
+      <c r="D225">
+        <v>-79.49297349999999</v>
+      </c>
+      <c r="E225" t="s">
+        <v>395</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226">
+        <v>43.7666307</v>
+      </c>
+      <c r="D226">
+        <v>-79.52064799999999</v>
+      </c>
+      <c r="E226" t="s">
+        <v>395</v>
+      </c>
+      <c r="F226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227">
+        <v>43.763572</v>
+      </c>
+      <c r="D227">
+        <v>-79.4891951</v>
+      </c>
+      <c r="E227" t="s">
+        <v>397</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228">
+        <v>43.7634559</v>
+      </c>
+      <c r="D228">
+        <v>-79.4903374</v>
+      </c>
+      <c r="E228" t="s">
+        <v>401</v>
+      </c>
+      <c r="F228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229">
+        <v>43.7835026</v>
+      </c>
+      <c r="D229">
+        <v>-79.4823408</v>
+      </c>
+      <c r="E229" t="s">
+        <v>401</v>
+      </c>
+      <c r="F229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230">
+        <v>43.75977049999999</v>
+      </c>
+      <c r="D230">
+        <v>-79.50887639999999</v>
+      </c>
+      <c r="E230" t="s">
+        <v>399</v>
+      </c>
+      <c r="F230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231">
+        <v>43.7661394</v>
+      </c>
+      <c r="D231">
+        <v>-79.48655889999999</v>
+      </c>
+      <c r="E231" t="s">
+        <v>401</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232">
+        <v>43.7679803</v>
+      </c>
+      <c r="D232">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E232" t="s">
+        <v>401</v>
+      </c>
+      <c r="F232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233">
+        <v>43.7600299</v>
+      </c>
+      <c r="D233">
+        <v>-79.4964882</v>
+      </c>
+      <c r="E233" t="s">
+        <v>399</v>
+      </c>
+      <c r="F233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234">
+        <v>43.76098349999999</v>
+      </c>
+      <c r="D234">
+        <v>-79.51239050000001</v>
+      </c>
+      <c r="E234" t="s">
+        <v>405</v>
+      </c>
+      <c r="F234">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235">
+        <v>43.7699798</v>
+      </c>
+      <c r="D235">
+        <v>-79.52486429999999</v>
+      </c>
+      <c r="E235" t="s">
+        <v>399</v>
+      </c>
+      <c r="F235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236">
+        <v>43.763051</v>
+      </c>
+      <c r="D236">
+        <v>-79.5163436</v>
+      </c>
+      <c r="E236" t="s">
+        <v>404</v>
+      </c>
+      <c r="F236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237">
+        <v>43.7735331</v>
+      </c>
+      <c r="D237">
+        <v>-79.52328319999999</v>
+      </c>
+      <c r="E237" t="s">
+        <v>395</v>
+      </c>
+      <c r="F237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238">
+        <v>43.7674517</v>
+      </c>
+      <c r="D238">
+        <v>-79.5215264</v>
+      </c>
+      <c r="E238" t="s">
+        <v>404</v>
+      </c>
+      <c r="F238">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239">
+        <v>43.7621964</v>
+      </c>
+      <c r="D239">
+        <v>-79.5159044</v>
+      </c>
+      <c r="E239" t="s">
+        <v>404</v>
+      </c>
+      <c r="F239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240">
+        <v>43.70315129999999</v>
+      </c>
+      <c r="D240">
+        <v>-79.3612519</v>
+      </c>
+      <c r="E240" t="s">
+        <v>400</v>
+      </c>
+      <c r="F240">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241">
+        <v>43.7873026</v>
+      </c>
+      <c r="D241">
+        <v>-79.4978062</v>
+      </c>
+      <c r="E241" t="s">
+        <v>394</v>
+      </c>
+      <c r="F241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242">
+        <v>43.7879622</v>
+      </c>
+      <c r="D242">
+        <v>-79.495346</v>
+      </c>
+      <c r="E242" t="s">
+        <v>394</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243">
+        <v>43.7697192</v>
+      </c>
+      <c r="D243">
+        <v>-79.52284399999999</v>
+      </c>
+      <c r="E243" t="s">
+        <v>399</v>
+      </c>
+      <c r="F243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244">
+        <v>43.7652519</v>
+      </c>
+      <c r="D244">
+        <v>-79.5185398</v>
+      </c>
+      <c r="E244" t="s">
+        <v>395</v>
+      </c>
+      <c r="F244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245">
+        <v>43.7727112</v>
+      </c>
+      <c r="D245">
+        <v>-79.52319539999999</v>
+      </c>
+      <c r="E245" t="s">
+        <v>395</v>
+      </c>
+      <c r="F245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246">
+        <v>43.759998</v>
+      </c>
+      <c r="D246">
+        <v>-79.5113363</v>
+      </c>
+      <c r="E246" t="s">
+        <v>404</v>
+      </c>
+      <c r="F246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247">
+        <v>43.7588191</v>
+      </c>
+      <c r="D247">
+        <v>-79.5065922</v>
+      </c>
+      <c r="E247" t="s">
+        <v>399</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248">
+        <v>43.7867778</v>
+      </c>
+      <c r="D248">
+        <v>-79.44595169999999</v>
+      </c>
+      <c r="E248" t="s">
+        <v>406</v>
+      </c>
+      <c r="F248">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249">
+        <v>43.7612509</v>
+      </c>
+      <c r="D249">
+        <v>-79.49209479999999</v>
+      </c>
+      <c r="E249" t="s">
+        <v>395</v>
+      </c>
+      <c r="F249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250">
+        <v>43.76524999999999</v>
+      </c>
+      <c r="D250">
+        <v>-79.52012089999999</v>
+      </c>
+      <c r="E250" t="s">
+        <v>395</v>
+      </c>
+      <c r="F250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251">
+        <v>43.7605094</v>
+      </c>
+      <c r="D251">
+        <v>-79.49367650000001</v>
+      </c>
+      <c r="E251" t="s">
+        <v>397</v>
+      </c>
+      <c r="F251">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252">
+        <v>43.7592891</v>
+      </c>
+      <c r="D252">
+        <v>-79.49727899999999</v>
+      </c>
+      <c r="E252" t="s">
+        <v>399</v>
+      </c>
+      <c r="F252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253">
+        <v>43.7844488</v>
+      </c>
+      <c r="D253">
+        <v>-79.49095249999999</v>
+      </c>
+      <c r="E253" t="s">
+        <v>393</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254">
+        <v>43.764164</v>
+      </c>
+      <c r="D254">
+        <v>-79.4891951</v>
+      </c>
+      <c r="E254" t="s">
+        <v>397</v>
+      </c>
+      <c r="F254">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255">
+        <v>43.78435109999999</v>
+      </c>
+      <c r="D255">
+        <v>-79.48989809999999</v>
+      </c>
+      <c r="E255" t="s">
+        <v>393</v>
+      </c>
+      <c r="F255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256">
+        <v>43.7618021</v>
+      </c>
+      <c r="D256">
+        <v>-79.51564089999999</v>
+      </c>
+      <c r="E256" t="s">
+        <v>404</v>
+      </c>
+      <c r="F256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257">
+        <v>43.7803227</v>
+      </c>
+      <c r="D257">
+        <v>-79.50870069999999</v>
+      </c>
+      <c r="E257" t="s">
+        <v>397</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258">
+        <v>43.76012799999999</v>
+      </c>
+      <c r="D258">
+        <v>-79.51274189999999</v>
+      </c>
+      <c r="E258" t="s">
+        <v>405</v>
+      </c>
+      <c r="F258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259">
+        <v>43.7744858</v>
+      </c>
+      <c r="D259">
+        <v>-79.5239859</v>
+      </c>
+      <c r="E259" t="s">
+        <v>397</v>
+      </c>
+      <c r="F259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260">
+        <v>43.7803227</v>
+      </c>
+      <c r="D260">
+        <v>-79.50870069999999</v>
+      </c>
+      <c r="E260" t="s">
+        <v>397</v>
+      </c>
+      <c r="F260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261">
+        <v>43.7626806</v>
+      </c>
+      <c r="D261">
+        <v>-79.51673889999999</v>
+      </c>
+      <c r="E261" t="s">
+        <v>404</v>
+      </c>
+      <c r="F261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262">
+        <v>43.7754061</v>
+      </c>
+      <c r="D262">
+        <v>-79.5243373</v>
+      </c>
+      <c r="E262" t="s">
+        <v>397</v>
+      </c>
+      <c r="F262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263">
+        <v>43.7842208</v>
+      </c>
+      <c r="D263">
+        <v>-79.4884921</v>
+      </c>
+      <c r="E263" t="s">
+        <v>394</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264">
+        <v>43.7691932</v>
+      </c>
+      <c r="D264">
+        <v>-79.5227562</v>
+      </c>
+      <c r="E264" t="s">
+        <v>399</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265">
+        <v>43.7593085</v>
+      </c>
+      <c r="D265">
+        <v>-79.51028199999999</v>
+      </c>
+      <c r="E265" t="s">
+        <v>404</v>
+      </c>
+      <c r="F265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266">
+        <v>43.7585638</v>
+      </c>
+      <c r="D266">
+        <v>-79.4990363</v>
+      </c>
+      <c r="E266" t="s">
+        <v>395</v>
+      </c>
+      <c r="F266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267">
+        <v>43.7856349</v>
+      </c>
+      <c r="D267">
+        <v>-79.4877891</v>
+      </c>
+      <c r="E267" t="s">
+        <v>394</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268">
+        <v>43.7857964</v>
+      </c>
+      <c r="D268">
+        <v>-79.4911283</v>
+      </c>
+      <c r="E268" t="s">
+        <v>394</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269">
+        <v>43.764768</v>
+      </c>
+      <c r="D269">
+        <v>-79.4928429</v>
+      </c>
+      <c r="E269" t="s">
+        <v>401</v>
+      </c>
+      <c r="F269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270">
+        <v>43.764768</v>
+      </c>
+      <c r="D270">
+        <v>-79.4928429</v>
+      </c>
+      <c r="E270" t="s">
+        <v>401</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271">
+        <v>43.7564266</v>
+      </c>
+      <c r="D271">
+        <v>-79.49833339999999</v>
+      </c>
+      <c r="E271" t="s">
+        <v>399</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272">
+        <v>43.7565744</v>
+      </c>
+      <c r="D272">
+        <v>-79.4985042</v>
+      </c>
+      <c r="E272" t="s">
+        <v>399</v>
+      </c>
+      <c r="F272">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273">
+        <v>43.7564821</v>
+      </c>
+      <c r="D273">
+        <v>-79.49850219999999</v>
+      </c>
+      <c r="E273" t="s">
+        <v>399</v>
+      </c>
+      <c r="F273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274">
+        <v>43.7679803</v>
+      </c>
+      <c r="D274">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E274" t="s">
+        <v>401</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275">
+        <v>43.7679803</v>
+      </c>
+      <c r="D275">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E275" t="s">
+        <v>401</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276">
+        <v>43.7679803</v>
+      </c>
+      <c r="D276">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E276" t="s">
+        <v>401</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277">
+        <v>43.7347523</v>
+      </c>
+      <c r="D277">
+        <v>-79.34611559999999</v>
+      </c>
+      <c r="E277" t="s">
+        <v>407</v>
+      </c>
+      <c r="F277">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278">
+        <v>43.7679803</v>
+      </c>
+      <c r="D278">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E278" t="s">
+        <v>401</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279">
+        <v>43.7679803</v>
+      </c>
+      <c r="D279">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E279" t="s">
+        <v>401</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280">
+        <v>43.7679803</v>
+      </c>
+      <c r="D280">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E280" t="s">
+        <v>401</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281">
+        <v>43.7679803</v>
+      </c>
+      <c r="D281">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E281" t="s">
+        <v>401</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282">
+        <v>43.7679803</v>
+      </c>
+      <c r="D282">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E282" t="s">
+        <v>401</v>
+      </c>
+      <c r="F282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283">
+        <v>43.7679803</v>
+      </c>
+      <c r="D283">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E283" t="s">
+        <v>401</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284">
+        <v>43.766479</v>
+      </c>
+      <c r="D284">
+        <v>-79.47216499999999</v>
+      </c>
+      <c r="E284" t="s">
+        <v>404</v>
+      </c>
+      <c r="F284">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285">
+        <v>43.7679803</v>
+      </c>
+      <c r="D285">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E285" t="s">
+        <v>401</v>
+      </c>
+      <c r="F285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286">
+        <v>43.7679803</v>
+      </c>
+      <c r="D286">
+        <v>-79.48726189999999</v>
+      </c>
+      <c r="E286" t="s">
+        <v>401</v>
+      </c>
+      <c r="F286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287">
+        <v>43.7852061</v>
+      </c>
+      <c r="D287">
+        <v>-79.4895466</v>
+      </c>
+      <c r="E287" t="s">
+        <v>394</v>
+      </c>
+      <c r="F287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288">
+        <v>43.7712629</v>
+      </c>
+      <c r="D288">
+        <v>-79.5243373</v>
+      </c>
+      <c r="E288" t="s">
+        <v>399</v>
+      </c>
+      <c r="F288">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289">
+        <v>43.7587296</v>
+      </c>
+      <c r="D289">
+        <v>-79.4976305</v>
+      </c>
+      <c r="E289" t="s">
+        <v>399</v>
+      </c>
+      <c r="F289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290">
+        <v>43.7639033</v>
+      </c>
+      <c r="D290">
+        <v>-79.4863831</v>
+      </c>
+      <c r="E290" t="s">
+        <v>397</v>
+      </c>
+      <c r="F290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291">
+        <v>43.7629163</v>
+      </c>
+      <c r="D291">
+        <v>-79.4869104</v>
+      </c>
+      <c r="E291" t="s">
+        <v>397</v>
+      </c>
+      <c r="F291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>295</v>
+      </c>
+      <c r="C292">
+        <v>43.7817562</v>
+      </c>
+      <c r="D292">
+        <v>-79.48743759999999</v>
+      </c>
+      <c r="E292" t="s">
+        <v>394</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+      <c r="C293">
+        <v>43.7719197</v>
+      </c>
+      <c r="D293">
+        <v>-79.52503999999999</v>
+      </c>
+      <c r="E293" t="s">
+        <v>395</v>
+      </c>
+      <c r="F293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+      <c r="C294">
+        <v>43.7583638</v>
+      </c>
+      <c r="D294">
+        <v>-79.50167209999999</v>
+      </c>
+      <c r="E294" t="s">
+        <v>395</v>
+      </c>
+      <c r="F294">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>298</v>
+      </c>
+      <c r="C295">
+        <v>43.7593247</v>
+      </c>
+      <c r="D295">
+        <v>-79.4944673</v>
+      </c>
+      <c r="E295" t="s">
+        <v>395</v>
+      </c>
+      <c r="F295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>299</v>
+      </c>
+      <c r="C296">
+        <v>43.7624547</v>
+      </c>
+      <c r="D296">
+        <v>-79.4883164</v>
+      </c>
+      <c r="E296" t="s">
+        <v>397</v>
+      </c>
+      <c r="F296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>300</v>
+      </c>
+      <c r="C297">
+        <v>43.76393239999999</v>
+      </c>
+      <c r="D297">
+        <v>-79.5218778</v>
+      </c>
+      <c r="E297" t="s">
+        <v>399</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>301</v>
+      </c>
+      <c r="C298">
+        <v>43.7778078</v>
+      </c>
+      <c r="D298">
+        <v>-79.52310749999999</v>
+      </c>
+      <c r="E298" t="s">
+        <v>397</v>
+      </c>
+      <c r="F298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>302</v>
+      </c>
+      <c r="C299">
+        <v>43.7775852</v>
+      </c>
+      <c r="D299">
+        <v>-79.4823408</v>
+      </c>
+      <c r="E299" t="s">
+        <v>395</v>
+      </c>
+      <c r="F299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>303</v>
+      </c>
+      <c r="C300">
+        <v>43.7588955</v>
+      </c>
+      <c r="D300">
+        <v>-79.49622459999999</v>
+      </c>
+      <c r="E300" t="s">
+        <v>399</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>304</v>
+      </c>
+      <c r="C301">
+        <v>43.7846835</v>
+      </c>
+      <c r="D301">
+        <v>-79.4855044</v>
+      </c>
+      <c r="E301" t="s">
+        <v>401</v>
+      </c>
+      <c r="F301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>305</v>
+      </c>
+      <c r="C302">
+        <v>43.7842221</v>
+      </c>
+      <c r="D302">
+        <v>-79.4869104</v>
+      </c>
+      <c r="E302" t="s">
+        <v>397</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>306</v>
+      </c>
+      <c r="C303">
+        <v>43.7596668</v>
+      </c>
+      <c r="D303">
+        <v>-79.5133568</v>
+      </c>
+      <c r="E303" t="s">
+        <v>405</v>
+      </c>
+      <c r="F303">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>307</v>
+      </c>
+      <c r="C304">
+        <v>43.7876249</v>
+      </c>
+      <c r="D304">
+        <v>-79.50448360000001</v>
+      </c>
+      <c r="E304" t="s">
+        <v>401</v>
+      </c>
+      <c r="F304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>308</v>
+      </c>
+      <c r="C305">
+        <v>43.75935459999999</v>
+      </c>
+      <c r="D305">
+        <v>-79.5131811</v>
+      </c>
+      <c r="E305" t="s">
+        <v>405</v>
+      </c>
+      <c r="F305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+      <c r="C306">
+        <v>43.761635</v>
+      </c>
+      <c r="D306">
+        <v>-79.517837</v>
+      </c>
+      <c r="E306" t="s">
+        <v>399</v>
+      </c>
+      <c r="F306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="C307">
+        <v>43.7599522</v>
+      </c>
+      <c r="D307">
+        <v>-79.49165549999999</v>
+      </c>
+      <c r="E307" t="s">
+        <v>395</v>
+      </c>
+      <c r="F307">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>311</v>
+      </c>
+      <c r="C308">
+        <v>43.7588716</v>
+      </c>
+      <c r="D308">
+        <v>-79.5183641</v>
+      </c>
+      <c r="E308" t="s">
+        <v>404</v>
+      </c>
+      <c r="F308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+      <c r="C309">
+        <v>43.75874719999999</v>
+      </c>
+      <c r="D309">
+        <v>-79.5122148</v>
+      </c>
+      <c r="E309" t="s">
+        <v>399</v>
+      </c>
+      <c r="F309">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>313</v>
+      </c>
+      <c r="C310">
+        <v>43.7629121</v>
+      </c>
+      <c r="D310">
+        <v>-79.49165549999999</v>
+      </c>
+      <c r="E310" t="s">
+        <v>401</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>314</v>
+      </c>
+      <c r="C311">
+        <v>43.7645893</v>
+      </c>
+      <c r="D311">
+        <v>-79.52258049999999</v>
+      </c>
+      <c r="E311" t="s">
+        <v>404</v>
+      </c>
+      <c r="F311">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>315</v>
+      </c>
+      <c r="C312">
+        <v>43.7591852</v>
+      </c>
+      <c r="D312">
+        <v>-79.5025507</v>
+      </c>
+      <c r="E312" t="s">
+        <v>395</v>
+      </c>
+      <c r="F312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313">
+        <v>43.7812033</v>
+      </c>
+      <c r="D313">
+        <v>-79.4798802</v>
+      </c>
+      <c r="E313" t="s">
+        <v>397</v>
+      </c>
+      <c r="F313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>317</v>
+      </c>
+      <c r="C314">
+        <v>43.7581244</v>
+      </c>
+      <c r="D314">
+        <v>-79.51028199999999</v>
+      </c>
+      <c r="E314" t="s">
+        <v>404</v>
+      </c>
+      <c r="F314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>318</v>
+      </c>
+      <c r="C315">
+        <v>43.7600098</v>
+      </c>
+      <c r="D315">
+        <v>-79.51546519999999</v>
+      </c>
+      <c r="E315" t="s">
+        <v>404</v>
+      </c>
+      <c r="F315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>319</v>
+      </c>
+      <c r="C316">
+        <v>43.7624238</v>
+      </c>
+      <c r="D316">
+        <v>-79.5183641</v>
+      </c>
+      <c r="E316" t="s">
+        <v>399</v>
+      </c>
+      <c r="F316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>320</v>
+      </c>
+      <c r="C317">
+        <v>43.7667261</v>
+      </c>
+      <c r="D317">
+        <v>-79.52328319999999</v>
+      </c>
+      <c r="E317" t="s">
+        <v>404</v>
+      </c>
+      <c r="F317">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>321</v>
+      </c>
+      <c r="C318">
+        <v>43.7604791</v>
+      </c>
+      <c r="D318">
+        <v>-79.49095249999999</v>
+      </c>
+      <c r="E318" t="s">
+        <v>395</v>
+      </c>
+      <c r="F318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>322</v>
+      </c>
+      <c r="C319">
+        <v>43.7597865</v>
+      </c>
+      <c r="D319">
+        <v>-79.4930614</v>
+      </c>
+      <c r="E319" t="s">
+        <v>395</v>
+      </c>
+      <c r="F319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>323</v>
+      </c>
+      <c r="C320">
+        <v>43.7633423</v>
+      </c>
+      <c r="D320">
+        <v>-79.52029660000001</v>
+      </c>
+      <c r="E320" t="s">
+        <v>404</v>
+      </c>
+      <c r="F320">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321">
+        <v>43.7865097</v>
+      </c>
+      <c r="D321">
+        <v>-79.5020236</v>
+      </c>
+      <c r="E321" t="s">
+        <v>394</v>
+      </c>
+      <c r="F321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>325</v>
+      </c>
+      <c r="C322">
+        <v>43.75804000000001</v>
+      </c>
+      <c r="D322">
+        <v>-79.4965761</v>
+      </c>
+      <c r="E322" t="s">
+        <v>399</v>
+      </c>
+      <c r="F322">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>326</v>
+      </c>
+      <c r="C323">
+        <v>43.77257650000001</v>
+      </c>
+      <c r="D323">
+        <v>-79.5257427</v>
+      </c>
+      <c r="E323" t="s">
+        <v>399</v>
+      </c>
+      <c r="F323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>327</v>
+      </c>
+      <c r="C324">
+        <v>43.76511439999999</v>
+      </c>
+      <c r="D324">
+        <v>-79.52345889999999</v>
+      </c>
+      <c r="E324" t="s">
+        <v>404</v>
+      </c>
+      <c r="F324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>328</v>
+      </c>
+      <c r="C325">
+        <v>43.7594349</v>
+      </c>
+      <c r="D325">
+        <v>-79.5148502</v>
+      </c>
+      <c r="E325" t="s">
+        <v>404</v>
+      </c>
+      <c r="F325">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>329</v>
+      </c>
+      <c r="C326">
+        <v>43.7734968</v>
+      </c>
+      <c r="D326">
+        <v>-79.526094</v>
+      </c>
+      <c r="E326" t="s">
+        <v>395</v>
+      </c>
+      <c r="F326">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>330</v>
+      </c>
+      <c r="C327">
+        <v>43.77181849999999</v>
+      </c>
+      <c r="D327">
+        <v>-79.52714809999999</v>
+      </c>
+      <c r="E327" t="s">
+        <v>399</v>
+      </c>
+      <c r="F327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>331</v>
+      </c>
+      <c r="C328">
+        <v>43.7586676</v>
+      </c>
+      <c r="D328">
+        <v>-79.4937644</v>
+      </c>
+      <c r="E328" t="s">
+        <v>395</v>
+      </c>
+      <c r="F328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>332</v>
+      </c>
+      <c r="C329">
+        <v>43.7901278</v>
+      </c>
+      <c r="D329">
+        <v>-79.49956349999999</v>
+      </c>
+      <c r="E329" t="s">
+        <v>394</v>
+      </c>
+      <c r="F329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>333</v>
+      </c>
+      <c r="C330">
+        <v>43.7739913</v>
+      </c>
+      <c r="D330">
+        <v>-79.52503999999999</v>
+      </c>
+      <c r="E330" t="s">
+        <v>395</v>
+      </c>
+      <c r="F330">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>334</v>
+      </c>
+      <c r="C331">
+        <v>43.7718652</v>
+      </c>
+      <c r="D331">
+        <v>-79.48128629999999</v>
+      </c>
+      <c r="E331" t="s">
+        <v>399</v>
+      </c>
+      <c r="F331">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>335</v>
+      </c>
+      <c r="C332">
+        <v>43.75731469999999</v>
+      </c>
+      <c r="D332">
+        <v>-79.49833339999999</v>
+      </c>
+      <c r="E332" t="s">
+        <v>399</v>
+      </c>
+      <c r="F332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>336</v>
+      </c>
+      <c r="C333">
+        <v>43.7619941</v>
+      </c>
+      <c r="D333">
+        <v>-79.52012089999999</v>
+      </c>
+      <c r="E333" t="s">
+        <v>399</v>
+      </c>
+      <c r="F333">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>337</v>
+      </c>
+      <c r="C334">
+        <v>43.7603707</v>
+      </c>
+      <c r="D334">
+        <v>-79.5161679</v>
+      </c>
+      <c r="E334" t="s">
+        <v>404</v>
+      </c>
+      <c r="F334">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>338</v>
+      </c>
+      <c r="C335">
+        <v>43.7665924</v>
+      </c>
+      <c r="D335">
+        <v>-79.52503999999999</v>
+      </c>
+      <c r="E335" t="s">
+        <v>404</v>
+      </c>
+      <c r="F335">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>339</v>
+      </c>
+      <c r="C336">
+        <v>43.75546190000001</v>
+      </c>
+      <c r="D336">
+        <v>-79.50870069999999</v>
+      </c>
+      <c r="E336" t="s">
+        <v>404</v>
+      </c>
+      <c r="F336">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>340</v>
+      </c>
+      <c r="C337">
+        <v>43.789866</v>
+      </c>
+      <c r="D337">
+        <v>-79.49833339999999</v>
+      </c>
+      <c r="E337" t="s">
+        <v>401</v>
+      </c>
+      <c r="F337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>341</v>
+      </c>
+      <c r="C338">
+        <v>43.7900597</v>
+      </c>
+      <c r="D338">
+        <v>-79.5020236</v>
+      </c>
+      <c r="E338" t="s">
+        <v>397</v>
+      </c>
+      <c r="F338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>342</v>
+      </c>
+      <c r="C339">
+        <v>43.7606787</v>
+      </c>
+      <c r="D339">
+        <v>-79.4883164</v>
+      </c>
+      <c r="E339" t="s">
+        <v>397</v>
+      </c>
+      <c r="F339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>343</v>
+      </c>
+      <c r="C340">
+        <v>43.7744991</v>
+      </c>
+      <c r="D340">
+        <v>-79.5265332</v>
+      </c>
+      <c r="E340" t="s">
+        <v>399</v>
+      </c>
+      <c r="F340">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>344</v>
+      </c>
+      <c r="C341">
+        <v>43.7926211</v>
+      </c>
+      <c r="D341">
+        <v>-79.3565881</v>
+      </c>
+      <c r="E341" t="s">
+        <v>408</v>
+      </c>
+      <c r="F341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>345</v>
+      </c>
+      <c r="C342">
+        <v>43.7766987</v>
+      </c>
+      <c r="D342">
+        <v>-79.48075899999999</v>
+      </c>
+      <c r="E342" t="s">
+        <v>395</v>
+      </c>
+      <c r="F342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>346</v>
+      </c>
+      <c r="C343">
+        <v>43.7669321</v>
+      </c>
+      <c r="D343">
+        <v>-79.4823408</v>
+      </c>
+      <c r="E343" t="s">
+        <v>397</v>
+      </c>
+      <c r="F343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>347</v>
+      </c>
+      <c r="C344">
+        <v>43.7628525</v>
+      </c>
+      <c r="D344">
+        <v>-79.4846256</v>
+      </c>
+      <c r="E344" t="s">
+        <v>397</v>
+      </c>
+      <c r="F344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345">
+        <v>43.7757994</v>
+      </c>
+      <c r="D345">
+        <v>-79.5253913</v>
+      </c>
+      <c r="E345" t="s">
+        <v>395</v>
+      </c>
+      <c r="F345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>349</v>
+      </c>
+      <c r="C346">
+        <v>43.7579584</v>
+      </c>
+      <c r="D346">
+        <v>-79.5116877</v>
+      </c>
+      <c r="E346" t="s">
+        <v>405</v>
+      </c>
+      <c r="F346">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>350</v>
+      </c>
+      <c r="C347">
+        <v>43.7739704</v>
+      </c>
+      <c r="D347">
+        <v>-79.4800559</v>
+      </c>
+      <c r="E347" t="s">
+        <v>399</v>
+      </c>
+      <c r="F347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>351</v>
+      </c>
+      <c r="C348">
+        <v>43.7570738</v>
+      </c>
+      <c r="D348">
+        <v>-79.50852499999999</v>
+      </c>
+      <c r="E348" t="s">
+        <v>399</v>
+      </c>
+      <c r="F348">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>352</v>
+      </c>
+      <c r="C349">
+        <v>43.7567194</v>
+      </c>
+      <c r="D349">
+        <v>-79.50149639999999</v>
+      </c>
+      <c r="E349" t="s">
+        <v>399</v>
+      </c>
+      <c r="F349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>353</v>
+      </c>
+      <c r="C350">
+        <v>43.7572496</v>
+      </c>
+      <c r="D350">
+        <v>-79.4976305</v>
+      </c>
+      <c r="E350" t="s">
+        <v>399</v>
+      </c>
+      <c r="F350">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>354</v>
+      </c>
+      <c r="C351">
+        <v>43.7649751</v>
+      </c>
+      <c r="D351">
+        <v>-79.48278020000001</v>
+      </c>
+      <c r="E351" t="s">
+        <v>397</v>
+      </c>
+      <c r="F351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>355</v>
+      </c>
+      <c r="C352">
+        <v>43.7859972</v>
+      </c>
+      <c r="D352">
+        <v>-79.4869104</v>
+      </c>
+      <c r="E352" t="s">
+        <v>394</v>
+      </c>
+      <c r="F352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>356</v>
+      </c>
+      <c r="C353">
+        <v>43.757351</v>
+      </c>
+      <c r="D353">
+        <v>-79.5107213</v>
+      </c>
+      <c r="E353" t="s">
+        <v>404</v>
+      </c>
+      <c r="F353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>357</v>
+      </c>
+      <c r="C354">
+        <v>43.7580756</v>
+      </c>
+      <c r="D354">
+        <v>-79.4937644</v>
+      </c>
+      <c r="E354" t="s">
+        <v>395</v>
+      </c>
+      <c r="F354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>358</v>
+      </c>
+      <c r="C355">
+        <v>43.787965</v>
+      </c>
+      <c r="D355">
+        <v>-79.4921827</v>
+      </c>
+      <c r="E355" t="s">
+        <v>394</v>
+      </c>
+      <c r="F355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>359</v>
+      </c>
+      <c r="C356">
+        <v>43.7729708</v>
+      </c>
+      <c r="D356">
+        <v>-79.5260062</v>
+      </c>
+      <c r="E356" t="s">
+        <v>395</v>
+      </c>
+      <c r="F356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>360</v>
+      </c>
+      <c r="C357">
+        <v>43.7754061</v>
+      </c>
+      <c r="D357">
+        <v>-79.5243373</v>
+      </c>
+      <c r="E357" t="s">
+        <v>397</v>
+      </c>
+      <c r="F357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>361</v>
+      </c>
+      <c r="C358">
+        <v>43.7687311</v>
+      </c>
+      <c r="D358">
+        <v>-79.5241616</v>
+      </c>
+      <c r="E358" t="s">
+        <v>399</v>
+      </c>
+      <c r="F358">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>362</v>
+      </c>
+      <c r="C359">
+        <v>43.7710777</v>
+      </c>
+      <c r="D359">
+        <v>-79.4791771</v>
+      </c>
+      <c r="E359" t="s">
+        <v>399</v>
+      </c>
+      <c r="F359">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>363</v>
+      </c>
+      <c r="C360">
+        <v>43.7612379</v>
+      </c>
+      <c r="D360">
+        <v>-79.5199453</v>
+      </c>
+      <c r="E360" t="s">
+        <v>404</v>
+      </c>
+      <c r="F360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>364</v>
+      </c>
+      <c r="C361">
+        <v>43.7572038</v>
+      </c>
+      <c r="D361">
+        <v>-79.50993059999999</v>
+      </c>
+      <c r="E361" t="s">
+        <v>404</v>
+      </c>
+      <c r="F361">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>365</v>
+      </c>
+      <c r="C362">
+        <v>43.758647</v>
+      </c>
+      <c r="D362">
+        <v>-79.5135325</v>
+      </c>
+      <c r="E362" t="s">
+        <v>404</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>366</v>
+      </c>
+      <c r="C363">
+        <v>43.759794</v>
+      </c>
+      <c r="D363">
+        <v>-79.5171342</v>
+      </c>
+      <c r="E363" t="s">
+        <v>404</v>
+      </c>
+      <c r="F363">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>367</v>
+      </c>
+      <c r="C364">
+        <v>43.7586365</v>
+      </c>
+      <c r="D364">
+        <v>-79.49183119999999</v>
+      </c>
+      <c r="E364" t="s">
+        <v>397</v>
+      </c>
+      <c r="F364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>368</v>
+      </c>
+      <c r="C365">
+        <v>43.7808526</v>
+      </c>
+      <c r="D365">
+        <v>-79.504835</v>
+      </c>
+      <c r="E365" t="s">
+        <v>401</v>
+      </c>
+      <c r="F365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>369</v>
+      </c>
+      <c r="C366">
+        <v>43.777718</v>
+      </c>
+      <c r="D366">
+        <v>-79.4805832</v>
+      </c>
+      <c r="E366" t="s">
+        <v>397</v>
+      </c>
+      <c r="F366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>370</v>
+      </c>
+      <c r="C367">
+        <v>43.7585793</v>
+      </c>
+      <c r="D367">
+        <v>-79.5152016</v>
+      </c>
+      <c r="E367" t="s">
+        <v>405</v>
+      </c>
+      <c r="F367">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>371</v>
+      </c>
+      <c r="C368">
+        <v>43.7562909</v>
+      </c>
+      <c r="D368">
+        <v>-79.5024629</v>
+      </c>
+      <c r="E368" t="s">
+        <v>404</v>
+      </c>
+      <c r="F368">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>372</v>
+      </c>
+      <c r="C369">
+        <v>43.7756818</v>
+      </c>
+      <c r="D369">
+        <v>-79.47777099999999</v>
+      </c>
+      <c r="E369" t="s">
+        <v>395</v>
+      </c>
+      <c r="F369">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>373</v>
+      </c>
+      <c r="C370">
+        <v>43.7649751</v>
+      </c>
+      <c r="D370">
+        <v>-79.48278020000001</v>
+      </c>
+      <c r="E370" t="s">
+        <v>397</v>
+      </c>
+      <c r="F370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>374</v>
+      </c>
+      <c r="C371">
+        <v>43.762419</v>
+      </c>
+      <c r="D371">
+        <v>-79.522317</v>
+      </c>
+      <c r="E371" t="s">
+        <v>404</v>
+      </c>
+      <c r="F371">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>375</v>
+      </c>
+      <c r="C372">
+        <v>43.777277</v>
+      </c>
+      <c r="D372">
+        <v>-79.52697239999999</v>
+      </c>
+      <c r="E372" t="s">
+        <v>399</v>
+      </c>
+      <c r="F372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>376</v>
+      </c>
+      <c r="C373">
+        <v>43.7610752</v>
+      </c>
+      <c r="D373">
+        <v>-79.4862074</v>
+      </c>
+      <c r="E373" t="s">
+        <v>395</v>
+      </c>
+      <c r="F373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>377</v>
+      </c>
+      <c r="C374">
+        <v>43.7575331</v>
+      </c>
+      <c r="D374">
+        <v>-79.49350079999999</v>
+      </c>
+      <c r="E374" t="s">
+        <v>395</v>
+      </c>
+      <c r="F374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>378</v>
+      </c>
+      <c r="C375">
+        <v>43.7675128</v>
+      </c>
+      <c r="D375">
+        <v>-79.5253913</v>
+      </c>
+      <c r="E375" t="s">
+        <v>399</v>
+      </c>
+      <c r="F375">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>379</v>
+      </c>
+      <c r="C376">
+        <v>43.7630769</v>
+      </c>
+      <c r="D376">
+        <v>-79.5222291</v>
+      </c>
+      <c r="E376" t="s">
+        <v>404</v>
+      </c>
+      <c r="F376">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>380</v>
+      </c>
+      <c r="C377">
+        <v>43.7687616</v>
+      </c>
+      <c r="D377">
+        <v>-79.526094</v>
+      </c>
+      <c r="E377" t="s">
+        <v>404</v>
+      </c>
+      <c r="F377">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>381</v>
+      </c>
+      <c r="C378">
+        <v>43.7666573</v>
+      </c>
+      <c r="D378">
+        <v>-79.5257427</v>
+      </c>
+      <c r="E378" t="s">
+        <v>405</v>
+      </c>
+      <c r="F378">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>382</v>
+      </c>
+      <c r="C379">
+        <v>43.7644327</v>
+      </c>
+      <c r="D379">
+        <v>-79.48251660000001</v>
+      </c>
+      <c r="E379" t="s">
+        <v>395</v>
+      </c>
+      <c r="F379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>383</v>
+      </c>
+      <c r="C380">
+        <v>43.7726563</v>
+      </c>
+      <c r="D380">
+        <v>-79.4786498</v>
+      </c>
+      <c r="E380" t="s">
+        <v>399</v>
+      </c>
+      <c r="F380">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>384</v>
+      </c>
+      <c r="C381">
+        <v>43.7558964</v>
+      </c>
+      <c r="D381">
+        <v>-79.5021993</v>
+      </c>
+      <c r="E381" t="s">
+        <v>404</v>
+      </c>
+      <c r="F381">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>385</v>
+      </c>
+      <c r="C382">
+        <v>43.78906180000001</v>
+      </c>
+      <c r="D382">
+        <v>-79.51362039999999</v>
+      </c>
+      <c r="E382" t="s">
+        <v>406</v>
+      </c>
+      <c r="F382">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>386</v>
+      </c>
+      <c r="C383">
+        <v>43.7559151</v>
+      </c>
+      <c r="D383">
+        <v>-79.50000279999999</v>
+      </c>
+      <c r="E383" t="s">
+        <v>399</v>
+      </c>
+      <c r="F383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>387</v>
+      </c>
+      <c r="C384">
+        <v>43.762194</v>
+      </c>
+      <c r="D384">
+        <v>-79.4855044</v>
+      </c>
+      <c r="E384" t="s">
+        <v>397</v>
+      </c>
+      <c r="F384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>388</v>
+      </c>
+      <c r="C385">
+        <v>43.7566109</v>
+      </c>
+      <c r="D385">
+        <v>-79.5107213</v>
+      </c>
+      <c r="E385" t="s">
+        <v>404</v>
+      </c>
+      <c r="F385">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>389</v>
+      </c>
+      <c r="C386">
+        <v>43.7565769</v>
+      </c>
+      <c r="D386">
+        <v>-79.49596099999999</v>
+      </c>
+      <c r="E386" t="s">
+        <v>399</v>
+      </c>
+      <c r="F386">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>390</v>
+      </c>
+      <c r="C387">
+        <v>43.78735169999999</v>
+      </c>
+      <c r="D387">
+        <v>-79.5143231</v>
+      </c>
+      <c r="E387" t="s">
+        <v>401</v>
+      </c>
+      <c r="F387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>391</v>
+      </c>
+      <c r="C388">
+        <v>43.7745468</v>
+      </c>
+      <c r="D388">
+        <v>-79.5278508</v>
+      </c>
+      <c r="E388" t="s">
+        <v>399</v>
+      </c>
+      <c r="F388">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>392</v>
+      </c>
+      <c r="C389">
+        <v>43.761975</v>
+      </c>
+      <c r="D389">
+        <v>-79.522317</v>
+      </c>
+      <c r="E389" t="s">
+        <v>404</v>
+      </c>
+      <c r="F389">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
